--- a/raw_data/20200818_saline/20200818_Sensor3_Test_1.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_1.xlsx
@@ -1,840 +1,1256 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D07E280-E4D7-4221-A904-4D470FA4C732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>551.297815</v>
+        <v>551.29781500000001</v>
       </c>
       <c r="B2" s="1">
         <v>0.153138</v>
       </c>
       <c r="C2" s="1">
-        <v>1141.340000</v>
+        <v>1141.3399999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-261.872000</v>
+        <v>-261.87200000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>561.723224</v>
+        <v>561.72322399999996</v>
       </c>
       <c r="G2" s="1">
-        <v>0.156034</v>
+        <v>0.15603400000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1163.530000</v>
+        <v>1163.53</v>
       </c>
       <c r="I2" s="1">
-        <v>-219.424000</v>
+        <v>-219.42400000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>572.176410</v>
+        <v>572.17641000000003</v>
       </c>
       <c r="L2" s="1">
         <v>0.158938</v>
       </c>
       <c r="M2" s="1">
-        <v>1191.200000</v>
+        <v>1191.2</v>
       </c>
       <c r="N2" s="1">
-        <v>-151.814000</v>
+        <v>-151.81399999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>582.996674</v>
+        <v>582.99667399999998</v>
       </c>
       <c r="Q2" s="1">
         <v>0.161944</v>
       </c>
       <c r="R2" s="1">
-        <v>1198.890000</v>
+        <v>1198.8900000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-129.051000</v>
+        <v>-129.05099999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>593.388320</v>
+        <v>593.38832000000002</v>
       </c>
       <c r="V2" s="1">
-        <v>0.164830</v>
+        <v>0.16483</v>
       </c>
       <c r="W2" s="1">
-        <v>1205.990000</v>
+        <v>1205.99</v>
       </c>
       <c r="X2" s="1">
-        <v>-107.665000</v>
+        <v>-107.66500000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>603.531537</v>
+        <v>603.53153699999996</v>
       </c>
       <c r="AA2" s="1">
-        <v>0.167648</v>
+        <v>0.16764799999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1213.230000</v>
+        <v>1213.23</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.806200</v>
+        <v>-89.806200000000004</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>613.723832</v>
+        <v>613.72383200000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>0.170479</v>
+        <v>0.17047899999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1217.740000</v>
+        <v>1217.74</v>
       </c>
       <c r="AH2" s="1">
-        <v>-84.971100</v>
+        <v>-84.971100000000007</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>623.876934</v>
+        <v>623.87693400000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>0.173299</v>
+        <v>0.17329900000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1224.660000</v>
+        <v>1224.6600000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.545200</v>
+        <v>-87.545199999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>634.146601</v>
+        <v>634.14660100000003</v>
       </c>
       <c r="AP2" s="1">
         <v>0.176152</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1232.350000</v>
+        <v>1232.3499999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-98.637800</v>
+        <v>-98.637799999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>644.733210</v>
+        <v>644.73320999999999</v>
       </c>
       <c r="AU2" s="1">
         <v>0.179093</v>
       </c>
       <c r="AV2" s="1">
-        <v>1241.950000</v>
+        <v>1241.95</v>
       </c>
       <c r="AW2" s="1">
-        <v>-116.961000</v>
+        <v>-116.961</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>655.880800</v>
+        <v>655.88080000000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>0.182189</v>
+        <v>0.18218899999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1250.100000</v>
+        <v>1250.0999999999999</v>
       </c>
       <c r="BB2" s="1">
-        <v>-133.664000</v>
+        <v>-133.66399999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>666.508077</v>
+        <v>666.50807699999996</v>
       </c>
       <c r="BE2" s="1">
         <v>0.185141</v>
       </c>
       <c r="BF2" s="1">
-        <v>1288.140000</v>
+        <v>1288.1400000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-212.246000</v>
+        <v>-212.24600000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>677.942846</v>
+        <v>677.94284600000003</v>
       </c>
       <c r="BJ2" s="1">
-        <v>0.188317</v>
+        <v>0.18831700000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1353.600000</v>
+        <v>1353.6</v>
       </c>
       <c r="BL2" s="1">
-        <v>-344.488000</v>
+        <v>-344.488</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>689.405855</v>
+        <v>689.40585499999997</v>
       </c>
       <c r="BO2" s="1">
-        <v>0.191502</v>
+        <v>0.19150200000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1460.890000</v>
+        <v>1460.89</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-562.615000</v>
+        <v>-562.61500000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>700.151681</v>
+        <v>700.15168100000005</v>
       </c>
       <c r="BT2" s="1">
-        <v>0.194487</v>
+        <v>0.19448699999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1585.810000</v>
+        <v>1585.81</v>
       </c>
       <c r="BV2" s="1">
-        <v>-811.760000</v>
+        <v>-811.76</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>711.193130</v>
+        <v>711.19313</v>
       </c>
       <c r="BY2" s="1">
-        <v>0.197554</v>
+        <v>0.19755400000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1730.990000</v>
+        <v>1730.99</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1083.470000</v>
+        <v>-1083.47</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>722.413160</v>
+        <v>722.41315999999995</v>
       </c>
       <c r="CD2" s="1">
-        <v>0.200670</v>
+        <v>0.20066999999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2136.720000</v>
+        <v>2136.7199999999998</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1749.660000</v>
+        <v>-1749.66</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>551.688167</v>
+        <v>551.68816700000002</v>
       </c>
       <c r="B3" s="1">
-        <v>0.153247</v>
+        <v>0.15324699999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1141.380000</v>
+        <v>1141.3800000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-261.630000</v>
+        <v>-261.63</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>562.369015</v>
+        <v>562.36901499999999</v>
       </c>
       <c r="G3" s="1">
-        <v>0.156214</v>
+        <v>0.15621399999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1163.470000</v>
+        <v>1163.47</v>
       </c>
       <c r="I3" s="1">
-        <v>-219.558000</v>
+        <v>-219.55799999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>572.869817</v>
+        <v>572.86981700000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0.159131</v>
+        <v>0.15913099999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1191.010000</v>
+        <v>1191.01</v>
       </c>
       <c r="N3" s="1">
-        <v>-151.775000</v>
+        <v>-151.77500000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>583.427691</v>
+        <v>583.42769099999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.162063</v>
+        <v>0.16206300000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1198.880000</v>
+        <v>1198.8800000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-129.139000</v>
+        <v>-129.13900000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>593.735535</v>
+        <v>593.73553500000003</v>
       </c>
       <c r="V3" s="1">
-        <v>0.164927</v>
+        <v>0.16492699999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1206.080000</v>
+        <v>1206.08</v>
       </c>
       <c r="X3" s="1">
-        <v>-107.586000</v>
+        <v>-107.586</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>603.881193</v>
+        <v>603.88119300000005</v>
       </c>
       <c r="AA3" s="1">
-        <v>0.167745</v>
+        <v>0.16774500000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1213.310000</v>
+        <v>1213.31</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.914400</v>
+        <v>-89.914400000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>614.110211</v>
+        <v>614.11021100000005</v>
       </c>
       <c r="AF3" s="1">
-        <v>0.170586</v>
+        <v>0.17058599999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1217.750000</v>
+        <v>1217.75</v>
       </c>
       <c r="AH3" s="1">
-        <v>-84.957100</v>
+        <v>-84.957099999999997</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>624.260806</v>
@@ -843,43 +1259,43 @@
         <v>0.173406</v>
       </c>
       <c r="AL3" s="1">
-        <v>1224.630000</v>
+        <v>1224.6300000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.549800</v>
+        <v>-87.549800000000005</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>634.557752</v>
+        <v>634.55775200000005</v>
       </c>
       <c r="AP3" s="1">
-        <v>0.176266</v>
+        <v>0.17626600000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1232.350000</v>
+        <v>1232.3499999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-98.650600</v>
+        <v>-98.650599999999997</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>645.182587</v>
+        <v>645.18258700000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>0.179217</v>
+        <v>0.17921699999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1241.960000</v>
+        <v>1241.96</v>
       </c>
       <c r="AW3" s="1">
-        <v>-116.974000</v>
+        <v>-116.974</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>656.305835</v>
@@ -888,58 +1304,58 @@
         <v>0.182307</v>
       </c>
       <c r="BA3" s="1">
-        <v>1250.090000</v>
+        <v>1250.0899999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-133.656000</v>
+        <v>-133.65600000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>666.870162</v>
+        <v>666.87016200000005</v>
       </c>
       <c r="BE3" s="1">
-        <v>0.185242</v>
+        <v>0.18524199999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1288.170000</v>
+        <v>1288.17</v>
       </c>
       <c r="BG3" s="1">
-        <v>-212.257000</v>
+        <v>-212.25700000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>678.323775</v>
+        <v>678.32377499999996</v>
       </c>
       <c r="BJ3" s="1">
-        <v>0.188423</v>
+        <v>0.18842300000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1353.550000</v>
+        <v>1353.55</v>
       </c>
       <c r="BL3" s="1">
-        <v>-344.512000</v>
+        <v>-344.512</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>689.819551</v>
+        <v>689.81955100000005</v>
       </c>
       <c r="BO3" s="1">
-        <v>0.191617</v>
+        <v>0.19161700000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1460.910000</v>
+        <v>1460.91</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-562.604000</v>
+        <v>-562.60400000000004</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>700.593121</v>
@@ -948,619 +1364,619 @@
         <v>0.194609</v>
       </c>
       <c r="BU3" s="1">
-        <v>1585.770000</v>
+        <v>1585.77</v>
       </c>
       <c r="BV3" s="1">
-        <v>-811.747000</v>
+        <v>-811.74699999999996</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>711.657874</v>
+        <v>711.65787399999999</v>
       </c>
       <c r="BY3" s="1">
         <v>0.197683</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1731.020000</v>
+        <v>1731.02</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1083.370000</v>
+        <v>-1083.3699999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>722.979588</v>
+        <v>722.97958800000004</v>
       </c>
       <c r="CD3" s="1">
-        <v>0.200828</v>
+        <v>0.20082800000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>2137.090000</v>
+        <v>2137.09</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1747.760000</v>
+        <v>-1747.76</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>552.344373</v>
+        <v>552.34437300000002</v>
       </c>
       <c r="B4" s="1">
-        <v>0.153429</v>
+        <v>0.15342900000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1141.390000</v>
+        <v>1141.3900000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-262.368000</v>
+        <v>-262.36799999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>562.754903</v>
+        <v>562.75490300000001</v>
       </c>
       <c r="G4" s="1">
-        <v>0.156321</v>
+        <v>0.15632099999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1163.360000</v>
+        <v>1163.3599999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-219.999000</v>
+        <v>-219.999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>573.243338</v>
+        <v>573.24333799999999</v>
       </c>
       <c r="L4" s="1">
-        <v>0.159234</v>
+        <v>0.15923399999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1191.180000</v>
+        <v>1191.18</v>
       </c>
       <c r="N4" s="1">
-        <v>-151.853000</v>
+        <v>-151.85300000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>583.775355</v>
+        <v>583.77535499999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.162160</v>
+        <v>0.16216</v>
       </c>
       <c r="R4" s="1">
-        <v>1198.870000</v>
+        <v>1198.8699999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-129.118000</v>
+        <v>-129.11799999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>594.081261</v>
+        <v>594.08126100000004</v>
       </c>
       <c r="V4" s="1">
         <v>0.165023</v>
       </c>
       <c r="W4" s="1">
-        <v>1206.070000</v>
+        <v>1206.07</v>
       </c>
       <c r="X4" s="1">
-        <v>-107.614000</v>
+        <v>-107.614</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>604.229409</v>
+        <v>604.22940900000003</v>
       </c>
       <c r="AA4" s="1">
-        <v>0.167842</v>
+        <v>0.16784199999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1213.270000</v>
+        <v>1213.27</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.946500</v>
+        <v>-89.9465</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>614.527314</v>
+        <v>614.52731400000005</v>
       </c>
       <c r="AF4" s="1">
-        <v>0.170702</v>
+        <v>0.17070199999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1217.780000</v>
+        <v>1217.78</v>
       </c>
       <c r="AH4" s="1">
-        <v>-84.930600</v>
+        <v>-84.930599999999998</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>624.680917</v>
+        <v>624.68091700000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>0.173522</v>
+        <v>0.17352200000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1224.640000</v>
+        <v>1224.6400000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.541300</v>
+        <v>-87.541300000000007</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>634.906971</v>
       </c>
       <c r="AP4" s="1">
-        <v>0.176363</v>
+        <v>0.17636299999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1232.350000</v>
+        <v>1232.3499999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-98.639900</v>
+        <v>-98.639899999999997</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>645.549593</v>
+        <v>645.54959299999996</v>
       </c>
       <c r="AU4" s="1">
-        <v>0.179319</v>
+        <v>0.17931900000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1241.970000</v>
+        <v>1241.97</v>
       </c>
       <c r="AW4" s="1">
-        <v>-116.959000</v>
+        <v>-116.959</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>656.666427</v>
       </c>
       <c r="AZ4" s="1">
-        <v>0.182407</v>
+        <v>0.18240700000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1250.100000</v>
+        <v>1250.0999999999999</v>
       </c>
       <c r="BB4" s="1">
-        <v>-133.656000</v>
+        <v>-133.65600000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>667.232701</v>
+        <v>667.23270100000002</v>
       </c>
       <c r="BE4" s="1">
-        <v>0.185342</v>
+        <v>0.18534200000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1288.200000</v>
+        <v>1288.2</v>
       </c>
       <c r="BG4" s="1">
-        <v>-212.240000</v>
+        <v>-212.24</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>679.073693</v>
+        <v>679.07369300000005</v>
       </c>
       <c r="BJ4" s="1">
-        <v>0.188632</v>
+        <v>0.18863199999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1353.580000</v>
+        <v>1353.58</v>
       </c>
       <c r="BL4" s="1">
-        <v>-344.523000</v>
+        <v>-344.52300000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>690.246574</v>
+        <v>690.24657400000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>0.191735</v>
+        <v>0.19173499999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1460.890000</v>
+        <v>1460.89</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-562.682000</v>
+        <v>-562.68200000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>701.033600</v>
+        <v>701.03359999999998</v>
       </c>
       <c r="BT4" s="1">
-        <v>0.194732</v>
+        <v>0.19473199999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1585.640000</v>
+        <v>1585.64</v>
       </c>
       <c r="BV4" s="1">
-        <v>-811.754000</v>
+        <v>-811.75400000000002</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>712.103809</v>
+        <v>712.10380899999996</v>
       </c>
       <c r="BY4" s="1">
-        <v>0.197807</v>
+        <v>0.19780700000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1731.020000</v>
+        <v>1731.02</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1083.610000</v>
+        <v>-1083.6099999999999</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>723.496419</v>
+        <v>723.49641899999995</v>
       </c>
       <c r="CD4" s="1">
-        <v>0.200971</v>
+        <v>0.20097100000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>2135.000000</v>
+        <v>2135</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1748.080000</v>
+        <v>-1748.08</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>552.712404</v>
+        <v>552.71240399999999</v>
       </c>
       <c r="B5" s="1">
         <v>0.153531</v>
       </c>
       <c r="C5" s="1">
-        <v>1141.300000</v>
+        <v>1141.3</v>
       </c>
       <c r="D5" s="1">
-        <v>-262.070000</v>
+        <v>-262.07</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>563.098632</v>
+        <v>563.09863199999995</v>
       </c>
       <c r="G5" s="1">
         <v>0.156416</v>
       </c>
       <c r="H5" s="1">
-        <v>1163.400000</v>
+        <v>1163.4000000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-219.755000</v>
+        <v>-219.755</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>573.588522</v>
+        <v>573.58852200000001</v>
       </c>
       <c r="L5" s="1">
-        <v>0.159330</v>
+        <v>0.15933</v>
       </c>
       <c r="M5" s="1">
-        <v>1190.990000</v>
+        <v>1190.99</v>
       </c>
       <c r="N5" s="1">
-        <v>-151.584000</v>
+        <v>-151.584</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>584.121562</v>
+        <v>584.12156200000004</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.162256</v>
+        <v>0.16225600000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1198.780000</v>
+        <v>1198.78</v>
       </c>
       <c r="S5" s="1">
-        <v>-129.117000</v>
+        <v>-129.11699999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>594.502862</v>
+        <v>594.50286200000005</v>
       </c>
       <c r="V5" s="1">
-        <v>0.165140</v>
+        <v>0.16514000000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1206.040000</v>
+        <v>1206.04</v>
       </c>
       <c r="X5" s="1">
-        <v>-107.581000</v>
+        <v>-107.581</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>604.635606</v>
+        <v>604.63560600000005</v>
       </c>
       <c r="AA5" s="1">
-        <v>0.167954</v>
+        <v>0.16795399999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1213.270000</v>
+        <v>1213.27</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.934600</v>
+        <v>-89.934600000000003</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>614.829378</v>
+        <v>614.82937800000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>0.170786</v>
+        <v>0.17078599999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1217.730000</v>
+        <v>1217.73</v>
       </c>
       <c r="AH5" s="1">
-        <v>-84.944900</v>
+        <v>-84.944900000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>624.979508</v>
+        <v>624.97950800000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>0.173605</v>
+        <v>0.17360500000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1224.630000</v>
+        <v>1224.6300000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.584300</v>
+        <v>-87.584299999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>635.267032</v>
+        <v>635.26703199999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>0.176463</v>
+        <v>0.17646300000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1232.350000</v>
+        <v>1232.3499999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-98.651100</v>
+        <v>-98.6511</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>645.911673</v>
+        <v>645.91167299999995</v>
       </c>
       <c r="AU5" s="1">
-        <v>0.179420</v>
+        <v>0.17942</v>
       </c>
       <c r="AV5" s="1">
-        <v>1241.970000</v>
+        <v>1241.97</v>
       </c>
       <c r="AW5" s="1">
-        <v>-116.982000</v>
+        <v>-116.982</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>657.023548</v>
+        <v>657.02354800000001</v>
       </c>
       <c r="AZ5" s="1">
         <v>0.182507</v>
       </c>
       <c r="BA5" s="1">
-        <v>1250.080000</v>
+        <v>1250.08</v>
       </c>
       <c r="BB5" s="1">
-        <v>-133.614000</v>
+        <v>-133.614</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>667.954412</v>
+        <v>667.95441200000005</v>
       </c>
       <c r="BE5" s="1">
-        <v>0.185543</v>
+        <v>0.18554300000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1288.180000</v>
+        <v>1288.18</v>
       </c>
       <c r="BG5" s="1">
-        <v>-212.212000</v>
+        <v>-212.21199999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>679.447182</v>
       </c>
       <c r="BJ5" s="1">
-        <v>0.188735</v>
+        <v>0.18873500000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1353.560000</v>
+        <v>1353.56</v>
       </c>
       <c r="BL5" s="1">
-        <v>-344.491000</v>
+        <v>-344.49099999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>690.639407</v>
+        <v>690.63940700000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>0.191844</v>
+        <v>0.19184399999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1460.890000</v>
+        <v>1460.89</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-562.649000</v>
+        <v>-562.649</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>701.462111</v>
+        <v>701.46211100000005</v>
       </c>
       <c r="BT5" s="1">
         <v>0.194851</v>
       </c>
       <c r="BU5" s="1">
-        <v>1585.520000</v>
+        <v>1585.52</v>
       </c>
       <c r="BV5" s="1">
-        <v>-811.797000</v>
+        <v>-811.79700000000003</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>712.837360</v>
+        <v>712.83735999999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>0.198010</v>
+        <v>0.19800999999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1731.040000</v>
+        <v>1731.04</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1083.480000</v>
+        <v>-1083.48</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>724.336113</v>
+        <v>724.33611299999995</v>
       </c>
       <c r="CD5" s="1">
-        <v>0.201204</v>
+        <v>0.20120399999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>2135.340000</v>
+        <v>2135.34</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1749.850000</v>
+        <v>-1749.85</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>553.052164</v>
+        <v>553.05216399999995</v>
       </c>
       <c r="B6" s="1">
-        <v>0.153626</v>
+        <v>0.15362600000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1141.330000</v>
+        <v>1141.33</v>
       </c>
       <c r="D6" s="1">
-        <v>-261.963000</v>
+        <v>-261.96300000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>563.446822</v>
       </c>
       <c r="G6" s="1">
-        <v>0.156513</v>
+        <v>0.15651300000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1163.430000</v>
+        <v>1163.43</v>
       </c>
       <c r="I6" s="1">
-        <v>-219.466000</v>
+        <v>-219.46600000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>573.933239</v>
+        <v>573.93323899999996</v>
       </c>
       <c r="L6" s="1">
-        <v>0.159426</v>
+        <v>0.15942600000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1191.400000</v>
+        <v>1191.4000000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-151.691000</v>
+        <v>-151.691</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>584.530298</v>
+        <v>584.53029800000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.162370</v>
+        <v>0.16236999999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1198.880000</v>
+        <v>1198.8800000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-129.145000</v>
+        <v>-129.14500000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>594.779629</v>
@@ -1569,163 +1985,163 @@
         <v>0.165217</v>
       </c>
       <c r="W6" s="1">
-        <v>1206.010000</v>
+        <v>1206.01</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.624000</v>
+        <v>-107.624</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>604.932208</v>
+        <v>604.93220799999995</v>
       </c>
       <c r="AA6" s="1">
-        <v>0.168037</v>
+        <v>0.16803699999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1213.250000</v>
+        <v>1213.25</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.950100</v>
+        <v>-89.950100000000006</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>615.173107</v>
+        <v>615.17310699999996</v>
       </c>
       <c r="AF6" s="1">
-        <v>0.170881</v>
+        <v>0.17088100000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1217.770000</v>
+        <v>1217.77</v>
       </c>
       <c r="AH6" s="1">
-        <v>-84.973500</v>
+        <v>-84.973500000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>625.329189</v>
+        <v>625.32918900000004</v>
       </c>
       <c r="AK6" s="1">
         <v>0.173703</v>
       </c>
       <c r="AL6" s="1">
-        <v>1224.640000</v>
+        <v>1224.6400000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.545100</v>
+        <v>-87.545100000000005</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>635.627624</v>
+        <v>635.62762399999997</v>
       </c>
       <c r="AP6" s="1">
         <v>0.176563</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1232.320000</v>
+        <v>1232.32</v>
       </c>
       <c r="AR6" s="1">
-        <v>-98.645600</v>
+        <v>-98.645600000000002</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>646.643309</v>
+        <v>646.64330900000004</v>
       </c>
       <c r="AU6" s="1">
         <v>0.179623</v>
       </c>
       <c r="AV6" s="1">
-        <v>1241.950000</v>
+        <v>1241.95</v>
       </c>
       <c r="AW6" s="1">
-        <v>-116.956000</v>
+        <v>-116.956</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>657.758617</v>
+        <v>657.75861699999996</v>
       </c>
       <c r="AZ6" s="1">
-        <v>0.182711</v>
+        <v>0.18271100000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1250.110000</v>
+        <v>1250.1099999999999</v>
       </c>
       <c r="BB6" s="1">
-        <v>-133.626000</v>
+        <v>-133.626</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>668.314971</v>
+        <v>668.31497100000001</v>
       </c>
       <c r="BE6" s="1">
         <v>0.185643</v>
       </c>
       <c r="BF6" s="1">
-        <v>1288.160000</v>
+        <v>1288.1600000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-212.229000</v>
+        <v>-212.22900000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>679.822156</v>
+        <v>679.82215599999995</v>
       </c>
       <c r="BJ6" s="1">
-        <v>0.188839</v>
+        <v>0.18883900000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1353.600000</v>
+        <v>1353.6</v>
       </c>
       <c r="BL6" s="1">
-        <v>-344.472000</v>
+        <v>-344.47199999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>691.065469</v>
+        <v>691.06546900000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>0.191963</v>
+        <v>0.19196299999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1460.950000</v>
+        <v>1460.95</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-562.658000</v>
+        <v>-562.65800000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>702.181311</v>
+        <v>702.18131100000005</v>
       </c>
       <c r="BT6" s="1">
-        <v>0.195050</v>
+        <v>0.19505</v>
       </c>
       <c r="BU6" s="1">
-        <v>1585.500000</v>
+        <v>1585.5</v>
       </c>
       <c r="BV6" s="1">
-        <v>-811.767000</v>
+        <v>-811.76700000000005</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>712.969831</v>
@@ -1734,31 +2150,31 @@
         <v>0.198047</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1731.010000</v>
+        <v>1731.01</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1083.620000</v>
+        <v>-1083.6199999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>724.566300</v>
+        <v>724.56629999999996</v>
       </c>
       <c r="CD6" s="1">
         <v>0.201268</v>
       </c>
       <c r="CE6" s="1">
-        <v>2137.250000</v>
+        <v>2137.25</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1749.220000</v>
+        <v>-1749.22</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>553.397379</v>
       </c>
@@ -1766,118 +2182,118 @@
         <v>0.153721</v>
       </c>
       <c r="C7" s="1">
-        <v>1141.280000</v>
+        <v>1141.28</v>
       </c>
       <c r="D7" s="1">
-        <v>-261.864000</v>
+        <v>-261.86399999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>563.862469</v>
+        <v>563.86246900000003</v>
       </c>
       <c r="G7" s="1">
-        <v>0.156628</v>
+        <v>0.15662799999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1163.190000</v>
+        <v>1163.19</v>
       </c>
       <c r="I7" s="1">
-        <v>-219.386000</v>
+        <v>-219.386</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>574.350408</v>
+        <v>574.35040800000002</v>
       </c>
       <c r="L7" s="1">
-        <v>0.159542</v>
+        <v>0.15954199999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1191.280000</v>
+        <v>1191.28</v>
       </c>
       <c r="N7" s="1">
-        <v>-151.775000</v>
+        <v>-151.77500000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>584.831339</v>
+        <v>584.83133899999996</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.162453</v>
+        <v>0.16245299999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1198.850000</v>
+        <v>1198.8499999999999</v>
       </c>
       <c r="S7" s="1">
-        <v>-129.053000</v>
+        <v>-129.053</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>595.126796</v>
+        <v>595.12679600000001</v>
       </c>
       <c r="V7" s="1">
-        <v>0.165313</v>
+        <v>0.16531299999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1205.990000</v>
+        <v>1205.99</v>
       </c>
       <c r="X7" s="1">
-        <v>-107.537000</v>
+        <v>-107.53700000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>605.279903</v>
+        <v>605.27990299999999</v>
       </c>
       <c r="AA7" s="1">
         <v>0.168133</v>
       </c>
       <c r="AB7" s="1">
-        <v>1213.230000</v>
+        <v>1213.23</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.917200</v>
+        <v>-89.917199999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>615.515841</v>
+        <v>615.51584100000002</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.170977</v>
+        <v>0.17097699999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1217.750000</v>
+        <v>1217.75</v>
       </c>
       <c r="AH7" s="1">
-        <v>-84.922700</v>
+        <v>-84.922700000000006</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>626.024580</v>
+        <v>626.02458000000001</v>
       </c>
       <c r="AK7" s="1">
         <v>0.173896</v>
       </c>
       <c r="AL7" s="1">
-        <v>1224.640000</v>
+        <v>1224.6400000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.567100</v>
+        <v>-87.567099999999996</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>636.348837</v>
@@ -1886,557 +2302,557 @@
         <v>0.176764</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1232.370000</v>
+        <v>1232.3699999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-98.638100</v>
+        <v>-98.638099999999994</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>647.026215</v>
+        <v>647.02621499999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>0.179730</v>
+        <v>0.17973</v>
       </c>
       <c r="AV7" s="1">
-        <v>1241.980000</v>
+        <v>1241.98</v>
       </c>
       <c r="AW7" s="1">
-        <v>-116.973000</v>
+        <v>-116.973</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>658.101850</v>
+        <v>658.10185000000001</v>
       </c>
       <c r="AZ7" s="1">
         <v>0.182806</v>
       </c>
       <c r="BA7" s="1">
-        <v>1250.060000</v>
+        <v>1250.06</v>
       </c>
       <c r="BB7" s="1">
-        <v>-133.620000</v>
+        <v>-133.62</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>668.675590</v>
+        <v>668.67559000000006</v>
       </c>
       <c r="BE7" s="1">
-        <v>0.185743</v>
+        <v>0.18574299999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1288.170000</v>
+        <v>1288.17</v>
       </c>
       <c r="BG7" s="1">
-        <v>-212.221000</v>
+        <v>-212.221</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>680.527467</v>
       </c>
       <c r="BJ7" s="1">
-        <v>0.189035</v>
+        <v>0.18903500000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1353.600000</v>
+        <v>1353.6</v>
       </c>
       <c r="BL7" s="1">
-        <v>-344.522000</v>
+        <v>-344.52199999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>691.796573</v>
+        <v>691.79657299999997</v>
       </c>
       <c r="BO7" s="1">
         <v>0.192166</v>
       </c>
       <c r="BP7" s="1">
-        <v>1460.910000</v>
+        <v>1460.91</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-562.682000</v>
+        <v>-562.68200000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>702.301838</v>
+        <v>702.30183799999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>0.195084</v>
+        <v>0.19508400000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1585.530000</v>
+        <v>1585.53</v>
       </c>
       <c r="BV7" s="1">
-        <v>-811.713000</v>
+        <v>-811.71299999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>713.396357</v>
+        <v>713.39635699999997</v>
       </c>
       <c r="BY7" s="1">
-        <v>0.198166</v>
+        <v>0.19816600000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1731.050000</v>
+        <v>1731.05</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1083.630000</v>
+        <v>-1083.6300000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>725.099953</v>
+        <v>725.09995300000003</v>
       </c>
       <c r="CD7" s="1">
-        <v>0.201417</v>
+        <v>0.20141700000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2134.960000</v>
+        <v>2134.96</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1747.770000</v>
+        <v>-1747.77</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>553.817986</v>
+        <v>553.81798600000002</v>
       </c>
       <c r="B8" s="1">
         <v>0.153838</v>
       </c>
       <c r="C8" s="1">
-        <v>1141.490000</v>
+        <v>1141.49</v>
       </c>
       <c r="D8" s="1">
-        <v>-262.156000</v>
+        <v>-262.15600000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>564.152661</v>
+        <v>564.15266099999997</v>
       </c>
       <c r="G8" s="1">
-        <v>0.156709</v>
+        <v>0.15670899999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1163.680000</v>
+        <v>1163.68</v>
       </c>
       <c r="I8" s="1">
-        <v>-219.596000</v>
+        <v>-219.596</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>574.631607</v>
+        <v>574.63160700000003</v>
       </c>
       <c r="L8" s="1">
-        <v>0.159620</v>
+        <v>0.15962000000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1191.120000</v>
+        <v>1191.1199999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-151.939000</v>
+        <v>-151.93899999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>585.178041</v>
+        <v>585.17804100000001</v>
       </c>
       <c r="Q8" s="1">
         <v>0.162549</v>
       </c>
       <c r="R8" s="1">
-        <v>1198.860000</v>
+        <v>1198.8599999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-129.134000</v>
+        <v>-129.13399999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>595.472013</v>
+        <v>595.47201299999995</v>
       </c>
       <c r="V8" s="1">
         <v>0.165409</v>
       </c>
       <c r="W8" s="1">
-        <v>1205.950000</v>
+        <v>1205.95</v>
       </c>
       <c r="X8" s="1">
-        <v>-107.684000</v>
+        <v>-107.684</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>605.630078</v>
+        <v>605.63007800000003</v>
       </c>
       <c r="AA8" s="1">
-        <v>0.168231</v>
+        <v>0.16823099999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1213.300000</v>
+        <v>1213.3</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.927500</v>
+        <v>-89.927499999999995</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>616.202304</v>
+        <v>616.20230400000003</v>
       </c>
       <c r="AF8" s="1">
-        <v>0.171167</v>
+        <v>0.17116700000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1217.760000</v>
+        <v>1217.76</v>
       </c>
       <c r="AH8" s="1">
-        <v>-84.912000</v>
+        <v>-84.912000000000006</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>626.378755</v>
+        <v>626.37875499999996</v>
       </c>
       <c r="AK8" s="1">
-        <v>0.173994</v>
+        <v>0.17399400000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1224.640000</v>
+        <v>1224.6400000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.555700</v>
+        <v>-87.555700000000002</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>636.709430</v>
+        <v>636.70943</v>
       </c>
       <c r="AP8" s="1">
-        <v>0.176864</v>
+        <v>0.17686399999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1232.340000</v>
+        <v>1232.3399999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-98.674300</v>
+        <v>-98.674300000000002</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>647.395704</v>
+        <v>647.39570400000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>0.179832</v>
+        <v>0.17983199999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1241.990000</v>
+        <v>1241.99</v>
       </c>
       <c r="AW8" s="1">
-        <v>-116.962000</v>
+        <v>-116.962</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>658.456020</v>
+        <v>658.45601999999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>0.182904</v>
+        <v>0.18290400000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1250.080000</v>
+        <v>1250.08</v>
       </c>
       <c r="BB8" s="1">
-        <v>-133.642000</v>
+        <v>-133.642</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>669.338218</v>
+        <v>669.33821799999998</v>
       </c>
       <c r="BE8" s="1">
-        <v>0.185927</v>
+        <v>0.18592700000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1288.180000</v>
+        <v>1288.18</v>
       </c>
       <c r="BG8" s="1">
-        <v>-212.239000</v>
+        <v>-212.239</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>680.974858</v>
+        <v>680.97485800000004</v>
       </c>
       <c r="BJ8" s="1">
-        <v>0.189160</v>
+        <v>0.18915999999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1353.590000</v>
+        <v>1353.59</v>
       </c>
       <c r="BL8" s="1">
-        <v>-344.537000</v>
+        <v>-344.53699999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>692.303521</v>
+        <v>692.30352100000005</v>
       </c>
       <c r="BO8" s="1">
-        <v>0.192307</v>
+        <v>0.19230700000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1460.850000</v>
+        <v>1460.85</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-562.663000</v>
+        <v>-562.66300000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>702.740798</v>
+        <v>702.74079800000004</v>
       </c>
       <c r="BT8" s="1">
-        <v>0.195206</v>
+        <v>0.19520599999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1585.450000</v>
+        <v>1585.45</v>
       </c>
       <c r="BV8" s="1">
-        <v>-811.777000</v>
+        <v>-811.77700000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>713.808559</v>
+        <v>713.80855899999995</v>
       </c>
       <c r="BY8" s="1">
-        <v>0.198280</v>
+        <v>0.19828000000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1731.070000</v>
+        <v>1731.07</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1083.380000</v>
+        <v>-1083.3800000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>725.639637</v>
+        <v>725.63963699999999</v>
       </c>
       <c r="CD8" s="1">
         <v>0.201567</v>
       </c>
       <c r="CE8" s="1">
-        <v>2136.600000</v>
+        <v>2136.6</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1750.630000</v>
+        <v>-1750.63</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>554.104674</v>
+        <v>554.10467400000005</v>
       </c>
       <c r="B9" s="1">
         <v>0.153918</v>
       </c>
       <c r="C9" s="1">
-        <v>1141.500000</v>
+        <v>1141.5</v>
       </c>
       <c r="D9" s="1">
-        <v>-261.626000</v>
+        <v>-261.62599999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>564.499366</v>
+        <v>564.49936600000001</v>
       </c>
       <c r="G9" s="1">
         <v>0.156805</v>
       </c>
       <c r="H9" s="1">
-        <v>1163.210000</v>
+        <v>1163.21</v>
       </c>
       <c r="I9" s="1">
-        <v>-219.620000</v>
+        <v>-219.62</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>574.975831</v>
+        <v>574.97583099999997</v>
       </c>
       <c r="L9" s="1">
         <v>0.159716</v>
       </c>
       <c r="M9" s="1">
-        <v>1191.140000</v>
+        <v>1191.1400000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-151.784000</v>
+        <v>-151.78399999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>585.524476</v>
+        <v>585.52447600000005</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.162646</v>
+        <v>0.16264600000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1198.880000</v>
+        <v>1198.8800000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-129.130000</v>
+        <v>-129.13</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>596.156492</v>
+        <v>596.15649199999996</v>
       </c>
       <c r="V9" s="1">
         <v>0.165599</v>
       </c>
       <c r="W9" s="1">
-        <v>1206.140000</v>
+        <v>1206.1400000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-107.604000</v>
+        <v>-107.604</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>606.322495</v>
       </c>
       <c r="AA9" s="1">
-        <v>0.168423</v>
+        <v>0.16842299999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1213.300000</v>
+        <v>1213.3</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.900800</v>
+        <v>-89.900800000000004</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>616.543056</v>
+        <v>616.54305599999998</v>
       </c>
       <c r="AF9" s="1">
         <v>0.171262</v>
       </c>
       <c r="AG9" s="1">
-        <v>1217.810000</v>
+        <v>1217.81</v>
       </c>
       <c r="AH9" s="1">
-        <v>-84.941400</v>
+        <v>-84.941400000000002</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>626.728402</v>
+        <v>626.72840199999996</v>
       </c>
       <c r="AK9" s="1">
         <v>0.174091</v>
       </c>
       <c r="AL9" s="1">
-        <v>1224.640000</v>
+        <v>1224.6400000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.563500</v>
+        <v>-87.563500000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>637.069764</v>
+        <v>637.06976399999996</v>
       </c>
       <c r="AP9" s="1">
-        <v>0.176964</v>
+        <v>0.17696400000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1232.310000</v>
+        <v>1232.31</v>
       </c>
       <c r="AR9" s="1">
-        <v>-98.649600</v>
+        <v>-98.649600000000007</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>648.069309</v>
+        <v>648.06930899999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>0.180019</v>
+        <v>0.18001900000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1241.960000</v>
+        <v>1241.96</v>
       </c>
       <c r="AW9" s="1">
-        <v>-116.981000</v>
+        <v>-116.98099999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>658.896935</v>
+        <v>658.89693499999998</v>
       </c>
       <c r="AZ9" s="1">
         <v>0.183027</v>
       </c>
       <c r="BA9" s="1">
-        <v>1250.070000</v>
+        <v>1250.07</v>
       </c>
       <c r="BB9" s="1">
-        <v>-133.651000</v>
+        <v>-133.65100000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>669.791065</v>
@@ -2445,58 +2861,58 @@
         <v>0.186053</v>
       </c>
       <c r="BF9" s="1">
-        <v>1288.180000</v>
+        <v>1288.18</v>
       </c>
       <c r="BG9" s="1">
-        <v>-212.215000</v>
+        <v>-212.215</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>681.376618</v>
+        <v>681.37661800000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>0.189271</v>
+        <v>0.18927099999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1353.560000</v>
+        <v>1353.56</v>
       </c>
       <c r="BL9" s="1">
-        <v>-344.527000</v>
+        <v>-344.52699999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>692.706267</v>
+        <v>692.70626700000003</v>
       </c>
       <c r="BO9" s="1">
-        <v>0.192418</v>
+        <v>0.19241800000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1460.910000</v>
+        <v>1460.91</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-562.610000</v>
+        <v>-562.61</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>703.165373</v>
+        <v>703.16537300000005</v>
       </c>
       <c r="BT9" s="1">
         <v>0.195324</v>
       </c>
       <c r="BU9" s="1">
-        <v>1585.440000</v>
+        <v>1585.44</v>
       </c>
       <c r="BV9" s="1">
-        <v>-811.619000</v>
+        <v>-811.61900000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>714.266347</v>
@@ -2505,452 +2921,452 @@
         <v>0.198407</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1731.010000</v>
+        <v>1731.01</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1083.520000</v>
+        <v>-1083.52</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>726.180769</v>
+        <v>726.18076900000005</v>
       </c>
       <c r="CD9" s="1">
-        <v>0.201717</v>
+        <v>0.20171700000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>2136.410000</v>
+        <v>2136.41</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1747.890000</v>
+        <v>-1747.89</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>554.449426</v>
+        <v>554.44942600000002</v>
       </c>
       <c r="B10" s="1">
-        <v>0.154014</v>
+        <v>0.15401400000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1141.300000</v>
+        <v>1141.3</v>
       </c>
       <c r="D10" s="1">
-        <v>-262.110000</v>
+        <v>-262.11</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>564.842672</v>
+        <v>564.84267199999999</v>
       </c>
       <c r="G10" s="1">
-        <v>0.156901</v>
+        <v>0.15690100000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1163.080000</v>
+        <v>1163.08</v>
       </c>
       <c r="I10" s="1">
-        <v>-219.534000</v>
+        <v>-219.53399999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>575.322534</v>
+        <v>575.32253400000002</v>
       </c>
       <c r="L10" s="1">
-        <v>0.159812</v>
+        <v>0.15981200000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1191.100000</v>
+        <v>1191.0999999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-151.628000</v>
+        <v>-151.62799999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>586.226089</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.162841</v>
+        <v>0.16284100000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1198.900000</v>
+        <v>1198.9000000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-129.181000</v>
+        <v>-129.18100000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>596.498261</v>
+        <v>596.49826099999996</v>
       </c>
       <c r="V10" s="1">
-        <v>0.165694</v>
+        <v>0.16569400000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1206.130000</v>
+        <v>1206.1300000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-107.741000</v>
+        <v>-107.741</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>606.674194</v>
+        <v>606.67419400000006</v>
       </c>
       <c r="AA10" s="1">
         <v>0.168521</v>
       </c>
       <c r="AB10" s="1">
-        <v>1213.120000</v>
+        <v>1213.1199999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.954900</v>
+        <v>-89.954899999999995</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>616.891247</v>
+        <v>616.89124700000002</v>
       </c>
       <c r="AF10" s="1">
-        <v>0.171359</v>
+        <v>0.17135900000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1217.710000</v>
+        <v>1217.71</v>
       </c>
       <c r="AH10" s="1">
-        <v>-84.937500</v>
+        <v>-84.9375</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>627.380642</v>
+        <v>627.38064199999997</v>
       </c>
       <c r="AK10" s="1">
-        <v>0.174272</v>
+        <v>0.17427200000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1224.640000</v>
+        <v>1224.6400000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.533900</v>
+        <v>-87.533900000000003</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>637.742564</v>
+        <v>637.74256400000002</v>
       </c>
       <c r="AP10" s="1">
         <v>0.177151</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1232.390000</v>
+        <v>1232.3900000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>-98.642500</v>
+        <v>-98.642499999999998</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>648.524139</v>
+        <v>648.52413899999999</v>
       </c>
       <c r="AU10" s="1">
         <v>0.180146</v>
       </c>
       <c r="AV10" s="1">
-        <v>1241.980000</v>
+        <v>1241.98</v>
       </c>
       <c r="AW10" s="1">
-        <v>-116.975000</v>
+        <v>-116.97499999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>659.176184</v>
+        <v>659.17618400000003</v>
       </c>
       <c r="AZ10" s="1">
-        <v>0.183104</v>
+        <v>0.18310399999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1250.090000</v>
+        <v>1250.0899999999999</v>
       </c>
       <c r="BB10" s="1">
-        <v>-133.658000</v>
+        <v>-133.65799999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>670.150169</v>
+        <v>670.15016900000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>0.186153</v>
+        <v>0.18615300000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1288.180000</v>
+        <v>1288.18</v>
       </c>
       <c r="BG10" s="1">
-        <v>-212.255000</v>
+        <v>-212.255</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>681.753081</v>
+        <v>681.75308099999995</v>
       </c>
       <c r="BJ10" s="1">
-        <v>0.189376</v>
+        <v>0.18937599999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1353.560000</v>
+        <v>1353.56</v>
       </c>
       <c r="BL10" s="1">
-        <v>-344.562000</v>
+        <v>-344.56200000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>693.119898</v>
+        <v>693.11989800000003</v>
       </c>
       <c r="BO10" s="1">
-        <v>0.192533</v>
+        <v>0.19253300000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1460.910000</v>
+        <v>1460.91</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-562.674000</v>
+        <v>-562.67399999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>703.581021</v>
+        <v>703.58102099999996</v>
       </c>
       <c r="BT10" s="1">
         <v>0.195439</v>
       </c>
       <c r="BU10" s="1">
-        <v>1585.360000</v>
+        <v>1585.36</v>
       </c>
       <c r="BV10" s="1">
-        <v>-811.610000</v>
+        <v>-811.61</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>714.713727</v>
+        <v>714.71372699999995</v>
       </c>
       <c r="BY10" s="1">
-        <v>0.198532</v>
+        <v>0.19853199999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1731.050000</v>
+        <v>1731.05</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1083.490000</v>
+        <v>-1083.49</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>726.719886</v>
+        <v>726.71988599999997</v>
       </c>
       <c r="CD10" s="1">
-        <v>0.201867</v>
+        <v>0.20186699999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>2134.640000</v>
+        <v>2134.64</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1749.200000</v>
+        <v>-1749.2</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>554.792129</v>
+        <v>554.79212900000005</v>
       </c>
       <c r="B11" s="1">
         <v>0.154109</v>
       </c>
       <c r="C11" s="1">
-        <v>1141.180000</v>
+        <v>1141.18</v>
       </c>
       <c r="D11" s="1">
-        <v>-262.007000</v>
+        <v>-262.00700000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>565.530517</v>
+        <v>565.53051700000003</v>
       </c>
       <c r="G11" s="1">
-        <v>0.157092</v>
+        <v>0.15709200000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1163.510000</v>
+        <v>1163.51</v>
       </c>
       <c r="I11" s="1">
-        <v>-219.462000</v>
+        <v>-219.46199999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>576.020442</v>
       </c>
       <c r="L11" s="1">
-        <v>0.160006</v>
+        <v>0.16000600000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1190.980000</v>
+        <v>1190.98</v>
       </c>
       <c r="N11" s="1">
-        <v>-151.753000</v>
+        <v>-151.75299999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>586.573783</v>
+        <v>586.57378300000005</v>
       </c>
       <c r="Q11" s="1">
         <v>0.162937</v>
       </c>
       <c r="R11" s="1">
-        <v>1198.870000</v>
+        <v>1198.8699999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-129.161000</v>
+        <v>-129.161</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>596.844938</v>
+        <v>596.84493799999996</v>
       </c>
       <c r="V11" s="1">
-        <v>0.165790</v>
+        <v>0.16578999999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1206.000000</v>
+        <v>1206</v>
       </c>
       <c r="X11" s="1">
-        <v>-107.687000</v>
+        <v>-107.687</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>607.022846</v>
+        <v>607.02284599999996</v>
       </c>
       <c r="AA11" s="1">
-        <v>0.168617</v>
+        <v>0.16861699999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1213.290000</v>
+        <v>1213.29</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.927900</v>
+        <v>-89.927899999999994</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>617.543519</v>
+        <v>617.54351899999995</v>
       </c>
       <c r="AF11" s="1">
-        <v>0.171540</v>
+        <v>0.17154</v>
       </c>
       <c r="AG11" s="1">
-        <v>1217.760000</v>
+        <v>1217.76</v>
       </c>
       <c r="AH11" s="1">
-        <v>-84.958500</v>
+        <v>-84.958500000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>627.774499</v>
+        <v>627.77449899999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>0.174382</v>
+        <v>0.17438200000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1224.640000</v>
+        <v>1224.6400000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.553700</v>
+        <v>-87.553700000000006</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>638.183507</v>
+        <v>638.18350699999996</v>
       </c>
       <c r="AP11" s="1">
-        <v>0.177273</v>
+        <v>0.17727299999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1232.330000</v>
+        <v>1232.33</v>
       </c>
       <c r="AR11" s="1">
-        <v>-98.652500</v>
+        <v>-98.652500000000003</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>648.885265</v>
       </c>
       <c r="AU11" s="1">
-        <v>0.180246</v>
+        <v>0.18024599999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1242.000000</v>
+        <v>1242</v>
       </c>
       <c r="AW11" s="1">
-        <v>-116.978000</v>
+        <v>-116.97799999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>659.535320</v>
+        <v>659.53531999999996</v>
       </c>
       <c r="AZ11" s="1">
-        <v>0.183204</v>
+        <v>0.18320400000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1250.090000</v>
+        <v>1250.0899999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-133.646000</v>
+        <v>-133.64599999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>670.510761</v>
@@ -2959,210 +3375,210 @@
         <v>0.186253</v>
       </c>
       <c r="BF11" s="1">
-        <v>1288.180000</v>
+        <v>1288.18</v>
       </c>
       <c r="BG11" s="1">
-        <v>-212.237000</v>
+        <v>-212.23699999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>682.165524</v>
       </c>
       <c r="BJ11" s="1">
-        <v>0.189490</v>
+        <v>0.18948999999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1353.560000</v>
+        <v>1353.56</v>
       </c>
       <c r="BL11" s="1">
-        <v>-344.578000</v>
+        <v>-344.57799999999997</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>693.511738</v>
+        <v>693.51173800000004</v>
       </c>
       <c r="BO11" s="1">
-        <v>0.192642</v>
+        <v>0.19264200000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1460.890000</v>
+        <v>1460.89</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-562.629000</v>
+        <v>-562.62900000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>704.011054</v>
+        <v>704.01105399999994</v>
       </c>
       <c r="BT11" s="1">
-        <v>0.195559</v>
+        <v>0.19555900000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1585.400000</v>
+        <v>1585.4</v>
       </c>
       <c r="BV11" s="1">
-        <v>-811.560000</v>
+        <v>-811.56</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>715.134366</v>
       </c>
       <c r="BY11" s="1">
-        <v>0.198648</v>
+        <v>0.19864799999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1731.180000</v>
+        <v>1731.18</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1083.400000</v>
+        <v>-1083.4000000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>727.259533</v>
+        <v>727.25953300000003</v>
       </c>
       <c r="CD11" s="1">
         <v>0.202017</v>
       </c>
       <c r="CE11" s="1">
-        <v>2137.640000</v>
+        <v>2137.64</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1749.160000</v>
+        <v>-1749.16</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>555.476112</v>
+        <v>555.47611199999994</v>
       </c>
       <c r="B12" s="1">
-        <v>0.154299</v>
+        <v>0.15429899999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1141.380000</v>
+        <v>1141.3800000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-262.128000</v>
+        <v>-262.12799999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>565.875235</v>
+        <v>565.87523499999998</v>
       </c>
       <c r="G12" s="1">
-        <v>0.157188</v>
+        <v>0.15718799999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1163.410000</v>
+        <v>1163.4100000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-219.275000</v>
+        <v>-219.27500000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>576.370583</v>
+        <v>576.37058300000001</v>
       </c>
       <c r="L12" s="1">
         <v>0.160103</v>
       </c>
       <c r="M12" s="1">
-        <v>1191.280000</v>
+        <v>1191.28</v>
       </c>
       <c r="N12" s="1">
-        <v>-151.820000</v>
+        <v>-151.82</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>586.923463</v>
+        <v>586.92346299999997</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.163034</v>
+        <v>0.16303400000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1198.820000</v>
+        <v>1198.82</v>
       </c>
       <c r="S12" s="1">
-        <v>-129.107000</v>
+        <v>-129.107</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>597.496186</v>
+        <v>597.49618599999997</v>
       </c>
       <c r="V12" s="1">
-        <v>0.165971</v>
+        <v>0.16597100000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1205.980000</v>
+        <v>1205.98</v>
       </c>
       <c r="X12" s="1">
-        <v>-107.580000</v>
+        <v>-107.58</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>607.681067</v>
+        <v>607.68106699999998</v>
       </c>
       <c r="AA12" s="1">
-        <v>0.168800</v>
+        <v>0.16880000000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1213.310000</v>
+        <v>1213.31</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.869100</v>
+        <v>-89.869100000000003</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>617.915514</v>
+        <v>617.91551400000003</v>
       </c>
       <c r="AF12" s="1">
-        <v>0.171643</v>
+        <v>0.17164299999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1217.790000</v>
+        <v>1217.79</v>
       </c>
       <c r="AH12" s="1">
-        <v>-84.937300</v>
+        <v>-84.937299999999993</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>628.120453</v>
       </c>
       <c r="AK12" s="1">
-        <v>0.174478</v>
+        <v>0.17447799999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1224.650000</v>
+        <v>1224.6500000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.551900</v>
+        <v>-87.551900000000003</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>638.541155</v>
@@ -3171,572 +3587,572 @@
         <v>0.177373</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1232.350000</v>
+        <v>1232.3499999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-98.655900</v>
+        <v>-98.655900000000003</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>649.253254</v>
+        <v>649.25325399999997</v>
       </c>
       <c r="AU12" s="1">
-        <v>0.180348</v>
+        <v>0.18034800000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1242.000000</v>
+        <v>1242</v>
       </c>
       <c r="AW12" s="1">
-        <v>-116.961000</v>
+        <v>-116.961</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>659.948950</v>
+        <v>659.94894999999997</v>
       </c>
       <c r="AZ12" s="1">
-        <v>0.183319</v>
+        <v>0.18331900000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1250.110000</v>
+        <v>1250.1099999999999</v>
       </c>
       <c r="BB12" s="1">
-        <v>-133.652000</v>
+        <v>-133.65199999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>670.920472</v>
+        <v>670.92047200000002</v>
       </c>
       <c r="BE12" s="1">
         <v>0.186367</v>
       </c>
       <c r="BF12" s="1">
-        <v>1288.200000</v>
+        <v>1288.2</v>
       </c>
       <c r="BG12" s="1">
-        <v>-212.234000</v>
+        <v>-212.23400000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>682.525849</v>
+        <v>682.52584899999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>0.189591</v>
+        <v>0.18959100000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1353.610000</v>
+        <v>1353.61</v>
       </c>
       <c r="BL12" s="1">
-        <v>-344.525000</v>
+        <v>-344.52499999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>693.931850</v>
+        <v>693.93185000000005</v>
       </c>
       <c r="BO12" s="1">
-        <v>0.192759</v>
+        <v>0.19275900000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1460.880000</v>
+        <v>1460.88</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-562.692000</v>
+        <v>-562.69200000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>704.439101</v>
+        <v>704.43910100000005</v>
       </c>
       <c r="BT12" s="1">
-        <v>0.195678</v>
+        <v>0.19567799999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1585.360000</v>
+        <v>1585.36</v>
       </c>
       <c r="BV12" s="1">
-        <v>-811.545000</v>
+        <v>-811.54499999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>715.556926</v>
+        <v>715.55692599999998</v>
       </c>
       <c r="BY12" s="1">
         <v>0.198766</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1731.130000</v>
+        <v>1731.13</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1083.460000</v>
+        <v>-1083.46</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>727.800670</v>
+        <v>727.80066999999997</v>
       </c>
       <c r="CD12" s="1">
-        <v>0.202167</v>
+        <v>0.20216700000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2134.720000</v>
+        <v>2134.7199999999998</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1747.750000</v>
+        <v>-1747.75</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>555.817856</v>
+        <v>555.81785600000001</v>
       </c>
       <c r="B13" s="1">
         <v>0.154394</v>
       </c>
       <c r="C13" s="1">
-        <v>1141.300000</v>
+        <v>1141.3</v>
       </c>
       <c r="D13" s="1">
-        <v>-261.963000</v>
+        <v>-261.96300000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>566.220946</v>
+        <v>566.22094600000003</v>
       </c>
       <c r="G13" s="1">
-        <v>0.157284</v>
+        <v>0.15728400000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1163.110000</v>
+        <v>1163.1099999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-219.509000</v>
+        <v>-219.50899999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>577.018883</v>
+        <v>577.01888299999996</v>
       </c>
       <c r="L13" s="1">
-        <v>0.160283</v>
+        <v>0.16028300000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1190.870000</v>
+        <v>1190.8699999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-151.888000</v>
+        <v>-151.88800000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>587.573226</v>
+        <v>587.57322599999998</v>
       </c>
       <c r="Q13" s="1">
         <v>0.163215</v>
       </c>
       <c r="R13" s="1">
-        <v>1198.910000</v>
+        <v>1198.9100000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-129.086000</v>
+        <v>-129.08600000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>597.871656</v>
+        <v>597.87165600000003</v>
       </c>
       <c r="V13" s="1">
         <v>0.166075</v>
       </c>
       <c r="W13" s="1">
-        <v>1205.930000</v>
+        <v>1205.93</v>
       </c>
       <c r="X13" s="1">
-        <v>-107.751000</v>
+        <v>-107.751</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>608.069407</v>
+        <v>608.06940699999996</v>
       </c>
       <c r="AA13" s="1">
         <v>0.168908</v>
       </c>
       <c r="AB13" s="1">
-        <v>1213.220000</v>
+        <v>1213.22</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.009000</v>
+        <v>-90.009</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>618.261726</v>
+        <v>618.26172599999995</v>
       </c>
       <c r="AF13" s="1">
         <v>0.171739</v>
       </c>
       <c r="AG13" s="1">
-        <v>1217.790000</v>
+        <v>1217.79</v>
       </c>
       <c r="AH13" s="1">
-        <v>-84.956800</v>
+        <v>-84.956800000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>628.470518</v>
+        <v>628.47051799999997</v>
       </c>
       <c r="AK13" s="1">
-        <v>0.174575</v>
+        <v>0.17457500000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1224.640000</v>
+        <v>1224.6400000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.579600</v>
+        <v>-87.579599999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>638.900722</v>
+        <v>638.90072199999997</v>
       </c>
       <c r="AP13" s="1">
-        <v>0.177472</v>
+        <v>0.17747199999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1232.350000</v>
+        <v>1232.3499999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-98.667500</v>
+        <v>-98.667500000000004</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>649.677300</v>
+        <v>649.67729999999995</v>
       </c>
       <c r="AU13" s="1">
-        <v>0.180466</v>
+        <v>0.18046599999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1242.000000</v>
+        <v>1242</v>
       </c>
       <c r="AW13" s="1">
-        <v>-116.954000</v>
+        <v>-116.95399999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>660.252998</v>
+        <v>660.25299800000005</v>
       </c>
       <c r="AZ13" s="1">
-        <v>0.183404</v>
+        <v>0.18340400000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1250.080000</v>
+        <v>1250.08</v>
       </c>
       <c r="BB13" s="1">
-        <v>-133.659000</v>
+        <v>-133.65899999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>671.239912</v>
       </c>
       <c r="BE13" s="1">
-        <v>0.186456</v>
+        <v>0.18645600000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1288.190000</v>
+        <v>1288.19</v>
       </c>
       <c r="BG13" s="1">
-        <v>-212.219000</v>
+        <v>-212.21899999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>682.902312</v>
+        <v>682.90231200000005</v>
       </c>
       <c r="BJ13" s="1">
         <v>0.189695</v>
       </c>
       <c r="BK13" s="1">
-        <v>1353.570000</v>
+        <v>1353.57</v>
       </c>
       <c r="BL13" s="1">
-        <v>-344.476000</v>
+        <v>-344.476</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>694.329669</v>
+        <v>694.32966899999997</v>
       </c>
       <c r="BO13" s="1">
-        <v>0.192869</v>
+        <v>0.19286900000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1460.950000</v>
+        <v>1460.95</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-562.598000</v>
+        <v>-562.59799999999996</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>704.848827</v>
+        <v>704.84882700000003</v>
       </c>
       <c r="BT13" s="1">
-        <v>0.195791</v>
+        <v>0.19579099999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1585.300000</v>
+        <v>1585.3</v>
       </c>
       <c r="BV13" s="1">
-        <v>-811.479000</v>
+        <v>-811.47900000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>715.982990</v>
+        <v>715.98298999999997</v>
       </c>
       <c r="BY13" s="1">
-        <v>0.198884</v>
+        <v>0.19888400000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1731.050000</v>
+        <v>1731.05</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1083.520000</v>
+        <v>-1083.52</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>728.342828</v>
+        <v>728.34282800000005</v>
       </c>
       <c r="CD13" s="1">
         <v>0.202317</v>
       </c>
       <c r="CE13" s="1">
-        <v>2136.580000</v>
+        <v>2136.58</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1750.160000</v>
+        <v>-1750.16</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>556.160096</v>
+        <v>556.16009599999995</v>
       </c>
       <c r="B14" s="1">
-        <v>0.154489</v>
+        <v>0.15448899999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1141.320000</v>
+        <v>1141.32</v>
       </c>
       <c r="D14" s="1">
-        <v>-261.935000</v>
+        <v>-261.935</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>566.870209</v>
+        <v>566.87020900000005</v>
       </c>
       <c r="G14" s="1">
-        <v>0.157464</v>
+        <v>0.15746399999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1163.180000</v>
+        <v>1163.18</v>
       </c>
       <c r="I14" s="1">
-        <v>-219.356000</v>
+        <v>-219.35599999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>577.408445</v>
+        <v>577.40844500000003</v>
       </c>
       <c r="L14" s="1">
-        <v>0.160391</v>
+        <v>0.16039100000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1191.110000</v>
+        <v>1191.1099999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-151.758000</v>
+        <v>-151.75800000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>587.968038</v>
+        <v>587.96803799999998</v>
       </c>
       <c r="Q14" s="1">
         <v>0.163324</v>
       </c>
       <c r="R14" s="1">
-        <v>1198.930000</v>
+        <v>1198.93</v>
       </c>
       <c r="S14" s="1">
-        <v>-129.126000</v>
+        <v>-129.126</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>598.218360</v>
+        <v>598.21835999999996</v>
       </c>
       <c r="V14" s="1">
-        <v>0.166172</v>
+        <v>0.16617199999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1205.940000</v>
+        <v>1205.94</v>
       </c>
       <c r="X14" s="1">
-        <v>-107.587000</v>
+        <v>-107.587</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>608.417632</v>
+        <v>608.41763200000003</v>
       </c>
       <c r="AA14" s="1">
-        <v>0.169005</v>
+        <v>0.16900499999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1213.200000</v>
+        <v>1213.2</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.763300</v>
+        <v>-89.763300000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>618.605454</v>
+        <v>618.60545400000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>0.171835</v>
+        <v>0.17183499999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1217.780000</v>
+        <v>1217.78</v>
       </c>
       <c r="AH14" s="1">
-        <v>-84.951100</v>
+        <v>-84.951099999999997</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>628.886995</v>
+        <v>628.88699499999996</v>
       </c>
       <c r="AK14" s="1">
-        <v>0.174691</v>
+        <v>0.17469100000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1224.670000</v>
+        <v>1224.67</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.587900</v>
+        <v>-87.587900000000005</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>639.319533</v>
+        <v>639.31953299999998</v>
       </c>
       <c r="AP14" s="1">
         <v>0.177589</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1232.350000</v>
+        <v>1232.3499999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-98.646900</v>
+        <v>-98.646900000000002</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>649.983331</v>
+        <v>649.98333100000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>0.180551</v>
+        <v>0.18055099999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1241.970000</v>
+        <v>1241.97</v>
       </c>
       <c r="AW14" s="1">
-        <v>-116.984000</v>
+        <v>-116.98399999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>660.613093</v>
+        <v>660.61309300000005</v>
       </c>
       <c r="AZ14" s="1">
         <v>0.183504</v>
       </c>
       <c r="BA14" s="1">
-        <v>1250.090000</v>
+        <v>1250.0899999999999</v>
       </c>
       <c r="BB14" s="1">
-        <v>-133.667000</v>
+        <v>-133.667</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>671.596503</v>
+        <v>671.59650299999998</v>
       </c>
       <c r="BE14" s="1">
         <v>0.186555</v>
       </c>
       <c r="BF14" s="1">
-        <v>1288.180000</v>
+        <v>1288.18</v>
       </c>
       <c r="BG14" s="1">
-        <v>-212.234000</v>
+        <v>-212.23400000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>683.276791</v>
@@ -3745,135 +4161,135 @@
         <v>0.189799</v>
       </c>
       <c r="BK14" s="1">
-        <v>1353.620000</v>
+        <v>1353.62</v>
       </c>
       <c r="BL14" s="1">
-        <v>-344.530000</v>
+        <v>-344.53</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>694.749784</v>
+        <v>694.74978399999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>0.192986</v>
+        <v>0.19298599999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1460.860000</v>
+        <v>1460.86</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-562.683000</v>
+        <v>-562.68299999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>705.281804</v>
+        <v>705.28180399999997</v>
       </c>
       <c r="BT14" s="1">
         <v>0.195912</v>
       </c>
       <c r="BU14" s="1">
-        <v>1585.360000</v>
+        <v>1585.36</v>
       </c>
       <c r="BV14" s="1">
-        <v>-811.362000</v>
+        <v>-811.36199999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>716.401611</v>
       </c>
       <c r="BY14" s="1">
-        <v>0.199000</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1731.050000</v>
+        <v>1731.05</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1083.710000</v>
+        <v>-1083.71</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>728.879963</v>
+        <v>728.87996299999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>0.202467</v>
+        <v>0.20246700000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>2136.550000</v>
+        <v>2136.5500000000002</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1748.290000</v>
+        <v>-1748.29</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>556.804932</v>
+        <v>556.80493200000001</v>
       </c>
       <c r="B15" s="1">
         <v>0.154668</v>
       </c>
       <c r="C15" s="1">
-        <v>1141.460000</v>
+        <v>1141.46</v>
       </c>
       <c r="D15" s="1">
-        <v>-262.186000</v>
+        <v>-262.18599999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>567.252626</v>
+        <v>567.25262599999996</v>
       </c>
       <c r="G15" s="1">
-        <v>0.157570</v>
+        <v>0.15756999999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1163.310000</v>
+        <v>1163.31</v>
       </c>
       <c r="I15" s="1">
-        <v>-219.703000</v>
+        <v>-219.703</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>577.751940</v>
+        <v>577.75193999999999</v>
       </c>
       <c r="L15" s="1">
-        <v>0.160487</v>
+        <v>0.16048699999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1191.350000</v>
+        <v>1191.3499999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-151.706000</v>
+        <v>-151.70599999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>588.314772</v>
+        <v>588.31477199999995</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.163421</v>
+        <v>0.16342100000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1198.890000</v>
+        <v>1198.8900000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-129.188000</v>
+        <v>-129.18799999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>598.566552</v>
@@ -3882,330 +4298,330 @@
         <v>0.166268</v>
       </c>
       <c r="W15" s="1">
-        <v>1206.060000</v>
+        <v>1206.06</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.705000</v>
+        <v>-107.705</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>608.770288</v>
+        <v>608.77028800000005</v>
       </c>
       <c r="AA15" s="1">
         <v>0.169103</v>
       </c>
       <c r="AB15" s="1">
-        <v>1213.290000</v>
+        <v>1213.29</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.973200</v>
+        <v>-89.973200000000006</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>619.018094</v>
+        <v>619.01809400000002</v>
       </c>
       <c r="AF15" s="1">
-        <v>0.171949</v>
+        <v>0.17194899999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1217.760000</v>
+        <v>1217.76</v>
       </c>
       <c r="AH15" s="1">
-        <v>-84.942800</v>
+        <v>-84.942800000000005</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>629.187125</v>
+        <v>629.18712500000004</v>
       </c>
       <c r="AK15" s="1">
-        <v>0.174774</v>
+        <v>0.17477400000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1224.690000</v>
+        <v>1224.69</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.533800</v>
+        <v>-87.533799999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>639.623891</v>
+        <v>639.62389099999996</v>
       </c>
       <c r="AP15" s="1">
         <v>0.177673</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1232.330000</v>
+        <v>1232.33</v>
       </c>
       <c r="AR15" s="1">
-        <v>-98.670900</v>
+        <v>-98.670900000000003</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>650.343428</v>
+        <v>650.34342800000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>0.180651</v>
+        <v>0.18065100000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1241.980000</v>
+        <v>1241.98</v>
       </c>
       <c r="AW15" s="1">
-        <v>-116.964000</v>
+        <v>-116.964</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>660.972230</v>
+        <v>660.97222999999997</v>
       </c>
       <c r="AZ15" s="1">
-        <v>0.183603</v>
+        <v>0.18360299999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1250.090000</v>
+        <v>1250.0899999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-133.644000</v>
+        <v>-133.64400000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>671.958583</v>
+        <v>671.95858299999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>0.186655</v>
+        <v>0.18665499999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1288.190000</v>
+        <v>1288.19</v>
       </c>
       <c r="BG15" s="1">
-        <v>-212.295000</v>
+        <v>-212.29499999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>684.026744</v>
+        <v>684.02674400000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>0.190007</v>
+        <v>0.19000700000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1353.590000</v>
+        <v>1353.59</v>
       </c>
       <c r="BL15" s="1">
-        <v>-344.495000</v>
+        <v>-344.495</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>695.147737</v>
+        <v>695.14773700000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>0.193097</v>
+        <v>0.19309699999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1460.870000</v>
+        <v>1460.87</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-562.619000</v>
+        <v>-562.61900000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>705.710346</v>
+        <v>705.71034599999996</v>
       </c>
       <c r="BT15" s="1">
-        <v>0.196031</v>
+        <v>0.19603100000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1585.310000</v>
+        <v>1585.31</v>
       </c>
       <c r="BV15" s="1">
-        <v>-811.455000</v>
+        <v>-811.45500000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>716.847515</v>
+        <v>716.84751500000004</v>
       </c>
       <c r="BY15" s="1">
         <v>0.199124</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1731.170000</v>
+        <v>1731.17</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1083.590000</v>
+        <v>-1083.5899999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>729.743498</v>
+        <v>729.74349800000005</v>
       </c>
       <c r="CD15" s="1">
         <v>0.202707</v>
       </c>
       <c r="CE15" s="1">
-        <v>2136.470000</v>
+        <v>2136.4699999999998</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1749.750000</v>
+        <v>-1749.75</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>557.183342</v>
+        <v>557.18334200000004</v>
       </c>
       <c r="B16" s="1">
-        <v>0.154773</v>
+        <v>0.15477299999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1141.420000</v>
+        <v>1141.42</v>
       </c>
       <c r="D16" s="1">
-        <v>-262.060000</v>
+        <v>-262.06</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>567.600355</v>
+        <v>567.60035500000004</v>
       </c>
       <c r="G16" s="1">
         <v>0.157667</v>
       </c>
       <c r="H16" s="1">
-        <v>1163.510000</v>
+        <v>1163.51</v>
       </c>
       <c r="I16" s="1">
-        <v>-219.666000</v>
+        <v>-219.666</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>578.095703</v>
+        <v>578.09570299999996</v>
       </c>
       <c r="L16" s="1">
         <v>0.160582</v>
       </c>
       <c r="M16" s="1">
-        <v>1191.420000</v>
+        <v>1191.42</v>
       </c>
       <c r="N16" s="1">
-        <v>-152.031000</v>
+        <v>-152.03100000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>588.665412</v>
+        <v>588.66541199999995</v>
       </c>
       <c r="Q16" s="1">
         <v>0.163518</v>
       </c>
       <c r="R16" s="1">
-        <v>1198.890000</v>
+        <v>1198.8900000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-129.185000</v>
+        <v>-129.185</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>598.979223</v>
+        <v>598.97922300000005</v>
       </c>
       <c r="V16" s="1">
         <v>0.166383</v>
       </c>
       <c r="W16" s="1">
-        <v>1206.010000</v>
+        <v>1206.01</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.669000</v>
+        <v>-107.669</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>609.228057</v>
+        <v>609.22805700000004</v>
       </c>
       <c r="AA16" s="1">
-        <v>0.169230</v>
+        <v>0.16922999999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1213.340000</v>
+        <v>1213.3399999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.930900</v>
+        <v>-89.930899999999994</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>619.315197</v>
+        <v>619.31519700000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>0.172032</v>
+        <v>0.17203199999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1217.760000</v>
+        <v>1217.76</v>
       </c>
       <c r="AH16" s="1">
-        <v>-84.928400</v>
+        <v>-84.928399999999996</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>629.536931</v>
+        <v>629.53693099999998</v>
       </c>
       <c r="AK16" s="1">
         <v>0.174871</v>
       </c>
       <c r="AL16" s="1">
-        <v>1224.670000</v>
+        <v>1224.67</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.572900</v>
+        <v>-87.572900000000004</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>639.983489</v>
+        <v>639.98348899999996</v>
       </c>
       <c r="AP16" s="1">
-        <v>0.177773</v>
+        <v>0.17777299999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1232.350000</v>
+        <v>1232.3499999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-98.658600</v>
+        <v>-98.658600000000007</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>650.708482</v>
@@ -4214,195 +4630,195 @@
         <v>0.180752</v>
       </c>
       <c r="AV16" s="1">
-        <v>1242.000000</v>
+        <v>1242</v>
       </c>
       <c r="AW16" s="1">
-        <v>-116.971000</v>
+        <v>-116.971</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>661.695365</v>
+        <v>661.69536500000004</v>
       </c>
       <c r="AZ16" s="1">
         <v>0.183804</v>
       </c>
       <c r="BA16" s="1">
-        <v>1250.120000</v>
+        <v>1250.1199999999999</v>
       </c>
       <c r="BB16" s="1">
-        <v>-133.658000</v>
+        <v>-133.65799999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>672.681253</v>
+        <v>672.68125299999997</v>
       </c>
       <c r="BE16" s="1">
-        <v>0.186856</v>
+        <v>0.18685599999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1288.170000</v>
+        <v>1288.17</v>
       </c>
       <c r="BG16" s="1">
-        <v>-212.245000</v>
+        <v>-212.245</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>684.402214</v>
+        <v>684.40221399999996</v>
       </c>
       <c r="BJ16" s="1">
         <v>0.190112</v>
       </c>
       <c r="BK16" s="1">
-        <v>1353.610000</v>
+        <v>1353.61</v>
       </c>
       <c r="BL16" s="1">
-        <v>-344.519000</v>
+        <v>-344.51900000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>695.567191</v>
+        <v>695.56719099999998</v>
       </c>
       <c r="BO16" s="1">
         <v>0.193213</v>
       </c>
       <c r="BP16" s="1">
-        <v>1460.940000</v>
+        <v>1460.94</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-562.701000</v>
+        <v>-562.70100000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>706.119545</v>
+        <v>706.11954500000002</v>
       </c>
       <c r="BT16" s="1">
-        <v>0.196144</v>
+        <v>0.19614400000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1585.370000</v>
+        <v>1585.37</v>
       </c>
       <c r="BV16" s="1">
-        <v>-811.435000</v>
+        <v>-811.43499999999995</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>717.577626</v>
+        <v>717.57762600000001</v>
       </c>
       <c r="BY16" s="1">
         <v>0.199327</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1731.140000</v>
+        <v>1731.14</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1083.500000</v>
+        <v>-1083.5</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>729.958763</v>
+        <v>729.95876299999998</v>
       </c>
       <c r="CD16" s="1">
         <v>0.202766</v>
       </c>
       <c r="CE16" s="1">
-        <v>2136.360000</v>
+        <v>2136.36</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1749.970000</v>
+        <v>-1749.97</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>557.526087</v>
+        <v>557.52608699999996</v>
       </c>
       <c r="B17" s="1">
-        <v>0.154868</v>
+        <v>0.15486800000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1141.220000</v>
+        <v>1141.22</v>
       </c>
       <c r="D17" s="1">
-        <v>-261.963000</v>
+        <v>-261.96300000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>567.946565</v>
+        <v>567.94656499999996</v>
       </c>
       <c r="G17" s="1">
-        <v>0.157763</v>
+        <v>0.15776299999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1163.430000</v>
+        <v>1163.43</v>
       </c>
       <c r="I17" s="1">
-        <v>-219.710000</v>
+        <v>-219.71</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>578.508834</v>
+        <v>578.50883399999998</v>
       </c>
       <c r="L17" s="1">
-        <v>0.160697</v>
+        <v>0.16069700000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1191.040000</v>
+        <v>1191.04</v>
       </c>
       <c r="N17" s="1">
-        <v>-151.921000</v>
+        <v>-151.92099999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>589.092499</v>
+        <v>589.09249899999998</v>
       </c>
       <c r="Q17" s="1">
         <v>0.163637</v>
       </c>
       <c r="R17" s="1">
-        <v>1198.850000</v>
+        <v>1198.8499999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-129.146000</v>
+        <v>-129.14599999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>599.272854</v>
+        <v>599.27285400000005</v>
       </c>
       <c r="V17" s="1">
         <v>0.166465</v>
       </c>
       <c r="W17" s="1">
-        <v>1206.030000</v>
+        <v>1206.03</v>
       </c>
       <c r="X17" s="1">
-        <v>-107.653000</v>
+        <v>-107.65300000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>609.474108</v>
@@ -4411,587 +4827,587 @@
         <v>0.169298</v>
       </c>
       <c r="AB17" s="1">
-        <v>1213.230000</v>
+        <v>1213.23</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.966800</v>
+        <v>-89.966800000000006</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>619.658461</v>
+        <v>619.65846099999999</v>
       </c>
       <c r="AF17" s="1">
         <v>0.172127</v>
       </c>
       <c r="AG17" s="1">
-        <v>1217.800000</v>
+        <v>1217.8</v>
       </c>
       <c r="AH17" s="1">
-        <v>-84.954500</v>
+        <v>-84.954499999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>629.885935</v>
+        <v>629.88593500000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>0.174968</v>
+        <v>0.17496800000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1224.660000</v>
+        <v>1224.6600000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.539000</v>
+        <v>-87.539000000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>640.343584</v>
+        <v>640.34358399999996</v>
       </c>
       <c r="AP17" s="1">
         <v>0.177873</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1232.340000</v>
+        <v>1232.3399999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-98.622500</v>
+        <v>-98.622500000000002</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>651.438594</v>
+        <v>651.43859399999997</v>
       </c>
       <c r="AU17" s="1">
         <v>0.180955</v>
       </c>
       <c r="AV17" s="1">
-        <v>1241.990000</v>
+        <v>1241.99</v>
       </c>
       <c r="AW17" s="1">
-        <v>-116.986000</v>
+        <v>-116.986</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>662.073348</v>
+        <v>662.07334800000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>0.183909</v>
+        <v>0.18390899999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1250.090000</v>
+        <v>1250.0899999999999</v>
       </c>
       <c r="BB17" s="1">
-        <v>-133.655000</v>
+        <v>-133.655</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>673.068667</v>
       </c>
       <c r="BE17" s="1">
-        <v>0.186964</v>
+        <v>0.18696399999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1288.190000</v>
+        <v>1288.19</v>
       </c>
       <c r="BG17" s="1">
-        <v>-212.241000</v>
+        <v>-212.24100000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>684.777686</v>
+        <v>684.77768600000002</v>
       </c>
       <c r="BJ17" s="1">
         <v>0.190216</v>
       </c>
       <c r="BK17" s="1">
-        <v>1353.620000</v>
+        <v>1353.62</v>
       </c>
       <c r="BL17" s="1">
-        <v>-344.531000</v>
+        <v>-344.53100000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>696.273462</v>
+        <v>696.27346199999999</v>
       </c>
       <c r="BO17" s="1">
         <v>0.193409</v>
       </c>
       <c r="BP17" s="1">
-        <v>1460.950000</v>
+        <v>1460.95</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-562.654000</v>
+        <v>-562.654</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>706.864537</v>
+        <v>706.86453700000004</v>
       </c>
       <c r="BT17" s="1">
         <v>0.196351</v>
       </c>
       <c r="BU17" s="1">
-        <v>1585.390000</v>
+        <v>1585.39</v>
       </c>
       <c r="BV17" s="1">
-        <v>-811.324000</v>
+        <v>-811.32399999999996</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>717.694682</v>
+        <v>717.69468199999994</v>
       </c>
       <c r="BY17" s="1">
-        <v>0.199360</v>
+        <v>0.19936000000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1731.050000</v>
+        <v>1731.05</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1083.530000</v>
+        <v>-1083.53</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>730.478569</v>
+        <v>730.47856899999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>0.202911</v>
+        <v>0.20291100000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>2137.050000</v>
+        <v>2137.0500000000002</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1748.270000</v>
+        <v>-1748.27</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>557.868846</v>
+        <v>557.86884599999996</v>
       </c>
       <c r="B18" s="1">
-        <v>0.154964</v>
+        <v>0.15496399999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1141.460000</v>
+        <v>1141.46</v>
       </c>
       <c r="D18" s="1">
-        <v>-262.036000</v>
+        <v>-262.036</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>568.363199</v>
+        <v>568.36319900000001</v>
       </c>
       <c r="G18" s="1">
-        <v>0.157879</v>
+        <v>0.15787899999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1163.190000</v>
+        <v>1163.19</v>
       </c>
       <c r="I18" s="1">
-        <v>-219.625000</v>
+        <v>-219.625</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>578.806930</v>
+        <v>578.80692999999997</v>
       </c>
       <c r="L18" s="1">
-        <v>0.160780</v>
+        <v>0.16078000000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1191.360000</v>
+        <v>1191.3599999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-151.645000</v>
+        <v>-151.64500000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>589.373891</v>
+        <v>589.37389099999996</v>
       </c>
       <c r="Q18" s="1">
         <v>0.163715</v>
       </c>
       <c r="R18" s="1">
-        <v>1198.870000</v>
+        <v>1198.8699999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-129.060000</v>
+        <v>-129.06</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>599.616582</v>
+        <v>599.61658199999999</v>
       </c>
       <c r="V18" s="1">
-        <v>0.166560</v>
+        <v>0.16656000000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1206.000000</v>
+        <v>1206</v>
       </c>
       <c r="X18" s="1">
-        <v>-107.705000</v>
+        <v>-107.705</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>609.822761</v>
+        <v>609.82276100000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>0.169395</v>
+        <v>0.16939499999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1213.260000</v>
+        <v>1213.26</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.931500</v>
+        <v>-89.9315</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>620.004422</v>
+        <v>620.00442199999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>0.172223</v>
+        <v>0.17222299999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1217.770000</v>
+        <v>1217.77</v>
       </c>
       <c r="AH18" s="1">
-        <v>-84.960200</v>
+        <v>-84.9602</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>630.577887</v>
+        <v>630.57788700000003</v>
       </c>
       <c r="AK18" s="1">
-        <v>0.175161</v>
+        <v>0.17516100000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1224.640000</v>
+        <v>1224.6400000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.529700</v>
+        <v>-87.529700000000005</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>641.072209</v>
+        <v>641.07220900000004</v>
       </c>
       <c r="AP18" s="1">
-        <v>0.178076</v>
+        <v>0.17807600000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1232.350000</v>
+        <v>1232.3499999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-98.675500</v>
+        <v>-98.6755</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>651.831427</v>
+        <v>651.83142699999996</v>
       </c>
       <c r="AU18" s="1">
         <v>0.181064</v>
       </c>
       <c r="AV18" s="1">
-        <v>1241.980000</v>
+        <v>1241.98</v>
       </c>
       <c r="AW18" s="1">
-        <v>-116.991000</v>
+        <v>-116.991</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>662.458741</v>
+        <v>662.45874100000003</v>
       </c>
       <c r="AZ18" s="1">
-        <v>0.184016</v>
+        <v>0.18401600000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1250.100000</v>
+        <v>1250.0999999999999</v>
       </c>
       <c r="BB18" s="1">
-        <v>-133.655000</v>
+        <v>-133.655</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>673.452036</v>
+        <v>673.45203600000002</v>
       </c>
       <c r="BE18" s="1">
-        <v>0.187070</v>
+        <v>0.18706999999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1288.160000</v>
+        <v>1288.1600000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-212.229000</v>
+        <v>-212.22900000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>685.464644</v>
+        <v>685.46464400000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>0.190407</v>
+        <v>0.19040699999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1353.610000</v>
+        <v>1353.61</v>
       </c>
       <c r="BL18" s="1">
-        <v>-344.528000</v>
+        <v>-344.52800000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>696.383575</v>
+        <v>696.38357499999995</v>
       </c>
       <c r="BO18" s="1">
-        <v>0.193440</v>
+        <v>0.19344</v>
       </c>
       <c r="BP18" s="1">
-        <v>1460.930000</v>
+        <v>1460.93</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-562.657000</v>
+        <v>-562.65700000000004</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>706.978120</v>
+        <v>706.97811999999999</v>
       </c>
       <c r="BT18" s="1">
         <v>0.196383</v>
       </c>
       <c r="BU18" s="1">
-        <v>1585.240000</v>
+        <v>1585.24</v>
       </c>
       <c r="BV18" s="1">
-        <v>-811.262000</v>
+        <v>-811.26199999999994</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>718.141609</v>
+        <v>718.14160900000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>0.199484</v>
+        <v>0.19948399999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1731.210000</v>
+        <v>1731.21</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1083.510000</v>
+        <v>-1083.51</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>730.995933</v>
+        <v>730.99593300000004</v>
       </c>
       <c r="CD18" s="1">
-        <v>0.203054</v>
+        <v>0.20305400000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>2134.840000</v>
+        <v>2134.84</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1747.870000</v>
+        <v>-1747.87</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>558.276721</v>
+        <v>558.27672099999995</v>
       </c>
       <c r="B19" s="1">
-        <v>0.155077</v>
+        <v>0.15507699999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1141.040000</v>
+        <v>1141.04</v>
       </c>
       <c r="D19" s="1">
-        <v>-261.834000</v>
+        <v>-261.834</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>568.643438</v>
+        <v>568.64343799999995</v>
       </c>
       <c r="G19" s="1">
-        <v>0.157957</v>
+        <v>0.15795699999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1163.650000</v>
+        <v>1163.6500000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-219.516000</v>
+        <v>-219.51599999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>579.156113</v>
       </c>
       <c r="L19" s="1">
-        <v>0.160877</v>
+        <v>0.16087699999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1191.010000</v>
+        <v>1191.01</v>
       </c>
       <c r="N19" s="1">
-        <v>-151.659000</v>
+        <v>-151.65899999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>589.720901</v>
+        <v>589.72090100000003</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.163811</v>
+        <v>0.16381100000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1198.900000</v>
+        <v>1198.9000000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-129.101000</v>
+        <v>-129.101</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>599.957346</v>
+        <v>599.95734600000003</v>
       </c>
       <c r="V19" s="1">
         <v>0.166655</v>
       </c>
       <c r="W19" s="1">
-        <v>1206.090000</v>
+        <v>1206.0899999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-107.634000</v>
+        <v>-107.634</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>610.521136</v>
+        <v>610.52113599999996</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.169589</v>
+        <v>0.16958899999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1213.220000</v>
+        <v>1213.22</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.904300</v>
+        <v>-89.904300000000006</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>620.691594</v>
+        <v>620.69159400000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.172414</v>
+        <v>0.17241400000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1217.740000</v>
+        <v>1217.74</v>
       </c>
       <c r="AH19" s="1">
-        <v>-84.956700</v>
+        <v>-84.956699999999998</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>630.927074</v>
+        <v>630.92707399999995</v>
       </c>
       <c r="AK19" s="1">
         <v>0.175258</v>
       </c>
       <c r="AL19" s="1">
-        <v>1224.670000</v>
+        <v>1224.67</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.549000</v>
+        <v>-87.549000000000007</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>641.438753</v>
+        <v>641.43875300000002</v>
       </c>
       <c r="AP19" s="1">
         <v>0.178177</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1232.360000</v>
+        <v>1232.3599999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-98.664200</v>
+        <v>-98.664199999999994</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>652.193506</v>
+        <v>652.19350599999996</v>
       </c>
       <c r="AU19" s="1">
-        <v>0.181165</v>
+        <v>0.18116499999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1241.990000</v>
+        <v>1241.99</v>
       </c>
       <c r="AW19" s="1">
-        <v>-116.966000</v>
+        <v>-116.96599999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>663.127838</v>
@@ -5000,120 +5416,120 @@
         <v>0.184202</v>
       </c>
       <c r="BA19" s="1">
-        <v>1250.110000</v>
+        <v>1250.1099999999999</v>
       </c>
       <c r="BB19" s="1">
-        <v>-133.653000</v>
+        <v>-133.65299999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>674.131060</v>
+        <v>674.13106000000005</v>
       </c>
       <c r="BE19" s="1">
-        <v>0.187259</v>
+        <v>0.18725900000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1288.180000</v>
+        <v>1288.18</v>
       </c>
       <c r="BG19" s="1">
-        <v>-212.234000</v>
+        <v>-212.23400000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>685.907077</v>
+        <v>685.90707699999996</v>
       </c>
       <c r="BJ19" s="1">
-        <v>0.190530</v>
+        <v>0.19053</v>
       </c>
       <c r="BK19" s="1">
-        <v>1353.570000</v>
+        <v>1353.57</v>
       </c>
       <c r="BL19" s="1">
-        <v>-344.547000</v>
+        <v>-344.54700000000003</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>696.805701</v>
       </c>
       <c r="BO19" s="1">
-        <v>0.193557</v>
+        <v>0.19355700000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1460.930000</v>
+        <v>1460.93</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-562.657000</v>
+        <v>-562.65700000000004</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>707.422040</v>
+        <v>707.42204000000004</v>
       </c>
       <c r="BT19" s="1">
-        <v>0.196506</v>
+        <v>0.19650599999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1585.420000</v>
+        <v>1585.42</v>
       </c>
       <c r="BV19" s="1">
-        <v>-811.147000</v>
+        <v>-811.14700000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>718.572601</v>
+        <v>718.57260099999996</v>
       </c>
       <c r="BY19" s="1">
         <v>0.199604</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1731.170000</v>
+        <v>1731.17</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1083.440000</v>
+        <v>-1083.44</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>731.515240</v>
+        <v>731.51523999999995</v>
       </c>
       <c r="CD19" s="1">
-        <v>0.203199</v>
+        <v>0.20319899999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>2134.700000</v>
+        <v>2134.6999999999998</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1750.070000</v>
+        <v>-1750.07</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>558.569661</v>
       </c>
       <c r="B20" s="1">
-        <v>0.155158</v>
+        <v>0.15515799999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1141.420000</v>
+        <v>1141.42</v>
       </c>
       <c r="D20" s="1">
-        <v>-262.267000</v>
+        <v>-262.267</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>568.986671</v>
@@ -5122,677 +5538,677 @@
         <v>0.158052</v>
       </c>
       <c r="H20" s="1">
-        <v>1163.520000</v>
+        <v>1163.52</v>
       </c>
       <c r="I20" s="1">
-        <v>-219.540000</v>
+        <v>-219.54</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>579.501328</v>
+        <v>579.50132799999994</v>
       </c>
       <c r="L20" s="1">
         <v>0.160973</v>
       </c>
       <c r="M20" s="1">
-        <v>1191.440000</v>
+        <v>1191.44</v>
       </c>
       <c r="N20" s="1">
-        <v>-152.101000</v>
+        <v>-152.101</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>590.071074</v>
+        <v>590.07107399999995</v>
       </c>
       <c r="Q20" s="1">
         <v>0.163909</v>
       </c>
       <c r="R20" s="1">
-        <v>1198.950000</v>
+        <v>1198.95</v>
       </c>
       <c r="S20" s="1">
-        <v>-129.163000</v>
+        <v>-129.16300000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>600.645286</v>
+        <v>600.64528600000006</v>
       </c>
       <c r="V20" s="1">
-        <v>0.166846</v>
+        <v>0.16684599999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1205.960000</v>
+        <v>1205.96</v>
       </c>
       <c r="X20" s="1">
-        <v>-107.637000</v>
+        <v>-107.637</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>610.870311</v>
+        <v>610.87031100000002</v>
       </c>
       <c r="AA20" s="1">
         <v>0.169686</v>
       </c>
       <c r="AB20" s="1">
-        <v>1213.400000</v>
+        <v>1213.4000000000001</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.004800</v>
+        <v>-90.004800000000003</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>621.035356</v>
+        <v>621.03535599999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>0.172510</v>
+        <v>0.17251</v>
       </c>
       <c r="AG20" s="1">
-        <v>1217.810000</v>
+        <v>1217.81</v>
       </c>
       <c r="AH20" s="1">
-        <v>-84.927000</v>
+        <v>-84.927000000000007</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>631.276221</v>
+        <v>631.27622099999996</v>
       </c>
       <c r="AK20" s="1">
-        <v>0.175355</v>
+        <v>0.17535500000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1224.650000</v>
+        <v>1224.6500000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.546300</v>
+        <v>-87.546300000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>641.837572</v>
+        <v>641.83757200000002</v>
       </c>
       <c r="AP20" s="1">
         <v>0.178288</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1232.330000</v>
+        <v>1232.33</v>
       </c>
       <c r="AR20" s="1">
-        <v>-98.662000</v>
+        <v>-98.662000000000006</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>652.851587</v>
+        <v>652.85158699999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>0.181348</v>
+        <v>0.18134800000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1241.980000</v>
+        <v>1241.98</v>
       </c>
       <c r="AW20" s="1">
-        <v>-116.970000</v>
+        <v>-116.97</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>663.536017</v>
+        <v>663.53601700000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>0.184316</v>
+        <v>0.18431600000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1250.110000</v>
+        <v>1250.1099999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-133.646000</v>
+        <v>-133.64599999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>674.534803</v>
+        <v>674.53480300000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>0.187371</v>
+        <v>0.18737100000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1288.210000</v>
+        <v>1288.21</v>
       </c>
       <c r="BG20" s="1">
-        <v>-212.243000</v>
+        <v>-212.24299999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>686.280067</v>
+        <v>686.28006700000003</v>
       </c>
       <c r="BJ20" s="1">
         <v>0.190633</v>
       </c>
       <c r="BK20" s="1">
-        <v>1353.620000</v>
+        <v>1353.62</v>
       </c>
       <c r="BL20" s="1">
-        <v>-344.539000</v>
+        <v>-344.53899999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>697.204485</v>
+        <v>697.20448499999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>0.193668</v>
+        <v>0.19366800000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1460.910000</v>
+        <v>1460.91</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-562.657000</v>
+        <v>-562.65700000000004</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>707.829256</v>
+        <v>707.82925599999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>0.196619</v>
+        <v>0.19661899999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1585.370000</v>
+        <v>1585.37</v>
       </c>
       <c r="BV20" s="1">
-        <v>-811.177000</v>
+        <v>-811.17700000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>718.994698</v>
+        <v>718.99469799999997</v>
       </c>
       <c r="BY20" s="1">
-        <v>0.199721</v>
+        <v>0.19972100000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1731.160000</v>
+        <v>1731.16</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1083.430000</v>
+        <v>-1083.43</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>732.031544</v>
+        <v>732.03154400000005</v>
       </c>
       <c r="CD20" s="1">
-        <v>0.203342</v>
+        <v>0.20334199999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>2134.790000</v>
+        <v>2134.79</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1749.010000</v>
+        <v>-1749.01</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>558.911405</v>
+        <v>558.91140499999995</v>
       </c>
       <c r="B21" s="1">
         <v>0.155253</v>
       </c>
       <c r="C21" s="1">
-        <v>1141.350000</v>
+        <v>1141.3499999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-261.800000</v>
+        <v>-261.8</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>569.333342</v>
+        <v>569.33334200000002</v>
       </c>
       <c r="G21" s="1">
-        <v>0.158148</v>
+        <v>0.15814800000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1163.410000</v>
+        <v>1163.4100000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-219.303000</v>
+        <v>-219.303</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>580.197216</v>
+        <v>580.19721600000003</v>
       </c>
       <c r="L21" s="1">
         <v>0.161166</v>
       </c>
       <c r="M21" s="1">
-        <v>1191.290000</v>
+        <v>1191.29</v>
       </c>
       <c r="N21" s="1">
-        <v>-151.761000</v>
+        <v>-151.761</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>590.765474</v>
+        <v>590.76547400000004</v>
       </c>
       <c r="Q21" s="1">
         <v>0.164102</v>
       </c>
       <c r="R21" s="1">
-        <v>1198.880000</v>
+        <v>1198.8800000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-129.192000</v>
+        <v>-129.19200000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>600.989510</v>
+        <v>600.98951</v>
       </c>
       <c r="V21" s="1">
-        <v>0.166942</v>
+        <v>0.16694200000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1205.970000</v>
+        <v>1205.97</v>
       </c>
       <c r="X21" s="1">
-        <v>-107.656000</v>
+        <v>-107.65600000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>611.218504</v>
+        <v>611.21850400000005</v>
       </c>
       <c r="AA21" s="1">
-        <v>0.169783</v>
+        <v>0.16978299999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1213.340000</v>
+        <v>1213.3399999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.070700</v>
+        <v>-90.070700000000002</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>621.376569</v>
+        <v>621.37656900000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>0.172605</v>
+        <v>0.17260500000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1217.770000</v>
+        <v>1217.77</v>
       </c>
       <c r="AH21" s="1">
-        <v>-84.912400</v>
+        <v>-84.912400000000005</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>631.932428</v>
+        <v>631.93242799999996</v>
       </c>
       <c r="AK21" s="1">
         <v>0.175537</v>
       </c>
       <c r="AL21" s="1">
-        <v>1224.640000</v>
+        <v>1224.6400000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.545200</v>
+        <v>-87.545199999999994</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>642.393549</v>
+        <v>642.39354900000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>0.178443</v>
+        <v>0.17844299999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1232.360000</v>
+        <v>1232.3599999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-98.640100</v>
+        <v>-98.640100000000004</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>653.323391</v>
+        <v>653.32339100000002</v>
       </c>
       <c r="AU21" s="1">
         <v>0.181479</v>
       </c>
       <c r="AV21" s="1">
-        <v>1241.990000</v>
+        <v>1241.99</v>
       </c>
       <c r="AW21" s="1">
-        <v>-116.982000</v>
+        <v>-116.982</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>663.925410</v>
+        <v>663.92541000000006</v>
       </c>
       <c r="AZ21" s="1">
         <v>0.184424</v>
       </c>
       <c r="BA21" s="1">
-        <v>1250.080000</v>
+        <v>1250.08</v>
       </c>
       <c r="BB21" s="1">
-        <v>-133.656000</v>
+        <v>-133.65600000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>674.960371</v>
+        <v>674.96037100000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>0.187489</v>
+        <v>0.18748899999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1288.190000</v>
+        <v>1288.19</v>
       </c>
       <c r="BG21" s="1">
-        <v>-212.255000</v>
+        <v>-212.255</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>686.659043</v>
       </c>
       <c r="BJ21" s="1">
-        <v>0.190739</v>
+        <v>0.19073899999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1353.600000</v>
+        <v>1353.6</v>
       </c>
       <c r="BL21" s="1">
-        <v>-344.517000</v>
+        <v>-344.517</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>697.628065</v>
+        <v>697.62806499999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>0.193786</v>
+        <v>0.19378600000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1460.910000</v>
+        <v>1460.91</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-562.627000</v>
+        <v>-562.62699999999995</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>708.315351</v>
+        <v>708.31535099999996</v>
       </c>
       <c r="BT21" s="1">
-        <v>0.196754</v>
+        <v>0.19675400000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1585.450000</v>
+        <v>1585.45</v>
       </c>
       <c r="BV21" s="1">
-        <v>-811.093000</v>
+        <v>-811.09299999999996</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>719.417289</v>
+        <v>719.41728899999998</v>
       </c>
       <c r="BY21" s="1">
-        <v>0.199838</v>
+        <v>0.19983799999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1731.120000</v>
+        <v>1731.12</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1083.650000</v>
+        <v>-1083.6500000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>732.586566</v>
+        <v>732.58656599999995</v>
       </c>
       <c r="CD21" s="1">
-        <v>0.203496</v>
+        <v>0.20349600000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>2135.230000</v>
+        <v>2135.23</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1747.970000</v>
+        <v>-1747.97</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>559.251660</v>
+        <v>559.25166000000002</v>
       </c>
       <c r="B22" s="1">
-        <v>0.155348</v>
+        <v>0.15534800000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1141.520000</v>
+        <v>1141.52</v>
       </c>
       <c r="D22" s="1">
-        <v>-261.880000</v>
+        <v>-261.88</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>570.030223</v>
+        <v>570.03022299999998</v>
       </c>
       <c r="G22" s="1">
-        <v>0.158342</v>
+        <v>0.15834200000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1163.340000</v>
+        <v>1163.3399999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-219.424000</v>
+        <v>-219.42400000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>580.548913</v>
+        <v>580.54891299999997</v>
       </c>
       <c r="L22" s="1">
-        <v>0.161264</v>
+        <v>0.16126399999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1191.260000</v>
+        <v>1191.26</v>
       </c>
       <c r="N22" s="1">
-        <v>-151.984000</v>
+        <v>-151.98400000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>591.117137</v>
+        <v>591.11713699999996</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.164199</v>
+        <v>0.16419900000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1198.870000</v>
+        <v>1198.8699999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-129.184000</v>
+        <v>-129.184</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>601.330260</v>
+        <v>601.33025999999995</v>
       </c>
       <c r="V22" s="1">
-        <v>0.167036</v>
+        <v>0.16703599999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1206.020000</v>
+        <v>1206.02</v>
       </c>
       <c r="X22" s="1">
-        <v>-107.697000</v>
+        <v>-107.697</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>611.870779</v>
+        <v>611.87077899999997</v>
       </c>
       <c r="AA22" s="1">
         <v>0.169964</v>
       </c>
       <c r="AB22" s="1">
-        <v>1213.300000</v>
+        <v>1213.3</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.877000</v>
+        <v>-89.876999999999995</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>622.027816</v>
+        <v>622.02781600000003</v>
       </c>
       <c r="AF22" s="1">
         <v>0.172786</v>
       </c>
       <c r="AG22" s="1">
-        <v>1217.800000</v>
+        <v>1217.8</v>
       </c>
       <c r="AH22" s="1">
-        <v>-84.960600</v>
+        <v>-84.960599999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>632.323275</v>
+        <v>632.32327499999997</v>
       </c>
       <c r="AK22" s="1">
         <v>0.175645</v>
       </c>
       <c r="AL22" s="1">
-        <v>1224.660000</v>
+        <v>1224.6600000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.562500</v>
+        <v>-87.5625</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>642.556239</v>
+        <v>642.55623900000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>0.178488</v>
+        <v>0.17848800000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1232.370000</v>
+        <v>1232.3699999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-98.649400</v>
+        <v>-98.6494</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>653.686495</v>
+        <v>653.68649500000004</v>
       </c>
       <c r="AU22" s="1">
-        <v>0.181580</v>
+        <v>0.18157999999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1241.990000</v>
+        <v>1241.99</v>
       </c>
       <c r="AW22" s="1">
-        <v>-116.986000</v>
+        <v>-116.986</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>664.283760</v>
+        <v>664.28376000000003</v>
       </c>
       <c r="AZ22" s="1">
-        <v>0.184523</v>
+        <v>0.18452299999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1250.110000</v>
+        <v>1250.1099999999999</v>
       </c>
       <c r="BB22" s="1">
-        <v>-133.668000</v>
+        <v>-133.66800000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>675.629970</v>
+        <v>675.62996999999996</v>
       </c>
       <c r="BE22" s="1">
-        <v>0.187675</v>
+        <v>0.18767500000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1288.230000</v>
+        <v>1288.23</v>
       </c>
       <c r="BG22" s="1">
-        <v>-212.259000</v>
+        <v>-212.25899999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>687.073667</v>
@@ -5801,43 +6217,43 @@
         <v>0.190854</v>
       </c>
       <c r="BK22" s="1">
-        <v>1353.620000</v>
+        <v>1353.62</v>
       </c>
       <c r="BL22" s="1">
-        <v>-344.490000</v>
+        <v>-344.49</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>698.024837</v>
+        <v>698.02483700000005</v>
       </c>
       <c r="BO22" s="1">
-        <v>0.193896</v>
+        <v>0.19389600000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1460.910000</v>
+        <v>1460.91</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-562.678000</v>
+        <v>-562.678</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>708.689814</v>
+        <v>708.68981399999996</v>
       </c>
       <c r="BT22" s="1">
-        <v>0.196858</v>
+        <v>0.19685800000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1585.470000</v>
+        <v>1585.47</v>
       </c>
       <c r="BV22" s="1">
-        <v>-811.119000</v>
+        <v>-811.11900000000003</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>719.871624</v>
@@ -5846,377 +6262,377 @@
         <v>0.199964</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1731.030000</v>
+        <v>1731.03</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1083.520000</v>
+        <v>-1083.52</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>733.115340</v>
+        <v>733.11533999999995</v>
       </c>
       <c r="CD22" s="1">
-        <v>0.203643</v>
+        <v>0.20364299999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>2134.880000</v>
+        <v>2134.88</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1749.750000</v>
+        <v>-1749.75</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>559.932171</v>
+        <v>559.93217100000004</v>
       </c>
       <c r="B23" s="1">
-        <v>0.155537</v>
+        <v>0.15553700000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1141.370000</v>
+        <v>1141.3699999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-261.895000</v>
+        <v>-261.89499999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>570.381389</v>
+        <v>570.38138900000001</v>
       </c>
       <c r="G23" s="1">
         <v>0.158439</v>
       </c>
       <c r="H23" s="1">
-        <v>1163.130000</v>
+        <v>1163.1300000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-219.545000</v>
+        <v>-219.54499999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>580.891330</v>
+        <v>580.89133000000004</v>
       </c>
       <c r="L23" s="1">
         <v>0.161359</v>
       </c>
       <c r="M23" s="1">
-        <v>1191.040000</v>
+        <v>1191.04</v>
       </c>
       <c r="N23" s="1">
-        <v>-152.009000</v>
+        <v>-152.00899999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>591.462849</v>
+        <v>591.46284900000001</v>
       </c>
       <c r="Q23" s="1">
         <v>0.164295</v>
       </c>
       <c r="R23" s="1">
-        <v>1198.860000</v>
+        <v>1198.8599999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-129.142000</v>
+        <v>-129.142</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>601.993939</v>
+        <v>601.99393899999995</v>
       </c>
       <c r="V23" s="1">
-        <v>0.167221</v>
+        <v>0.16722100000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1206.020000</v>
+        <v>1206.02</v>
       </c>
       <c r="X23" s="1">
-        <v>-107.647000</v>
+        <v>-107.64700000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>612.262085</v>
+        <v>612.26208499999996</v>
       </c>
       <c r="AA23" s="1">
         <v>0.170073</v>
       </c>
       <c r="AB23" s="1">
-        <v>1213.200000</v>
+        <v>1213.2</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.927000</v>
+        <v>-89.927000000000007</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>622.407289</v>
+        <v>622.40728899999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>0.172891</v>
+        <v>0.17289099999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>1217.790000</v>
+        <v>1217.79</v>
       </c>
       <c r="AH23" s="1">
-        <v>-84.984500</v>
+        <v>-84.984499999999997</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>632.670476</v>
+        <v>632.67047600000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>0.175742</v>
+        <v>0.17574200000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1224.660000</v>
+        <v>1224.6600000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.555400</v>
+        <v>-87.555400000000006</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>642.917325</v>
+        <v>642.91732500000001</v>
       </c>
       <c r="AP23" s="1">
         <v>0.178588</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1232.370000</v>
+        <v>1232.3699999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-98.660300</v>
+        <v>-98.660300000000007</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>654.051565</v>
+        <v>654.05156499999998</v>
       </c>
       <c r="AU23" s="1">
-        <v>0.181681</v>
+        <v>0.18168100000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1241.990000</v>
+        <v>1241.99</v>
       </c>
       <c r="AW23" s="1">
-        <v>-116.961000</v>
+        <v>-116.961</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>664.696690</v>
+        <v>664.69668999999999</v>
       </c>
       <c r="AZ23" s="1">
         <v>0.184638</v>
       </c>
       <c r="BA23" s="1">
-        <v>1250.120000</v>
+        <v>1250.1199999999999</v>
       </c>
       <c r="BB23" s="1">
-        <v>-133.644000</v>
+        <v>-133.64400000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>676.019825</v>
+        <v>676.01982499999997</v>
       </c>
       <c r="BE23" s="1">
-        <v>0.187783</v>
+        <v>0.18778300000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1288.180000</v>
+        <v>1288.18</v>
       </c>
       <c r="BG23" s="1">
-        <v>-212.229000</v>
+        <v>-212.22900000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>687.436738</v>
+        <v>687.43673799999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>0.190955</v>
+        <v>0.19095500000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1353.590000</v>
+        <v>1353.59</v>
       </c>
       <c r="BL23" s="1">
-        <v>-344.555000</v>
+        <v>-344.55500000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>698.446944</v>
+        <v>698.44694400000003</v>
       </c>
       <c r="BO23" s="1">
-        <v>0.194013</v>
+        <v>0.19401299999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1460.970000</v>
+        <v>1460.97</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-562.663000</v>
+        <v>-562.66300000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>709.100006</v>
+        <v>709.10000600000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>0.196972</v>
+        <v>0.19697200000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1585.430000</v>
+        <v>1585.43</v>
       </c>
       <c r="BV23" s="1">
-        <v>-811.078000</v>
+        <v>-811.07799999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>720.287799</v>
+        <v>720.28779899999995</v>
       </c>
       <c r="BY23" s="1">
-        <v>0.200080</v>
+        <v>0.20008000000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1731.220000</v>
+        <v>1731.22</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1083.450000</v>
+        <v>-1083.45</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>733.631639</v>
+        <v>733.63163899999995</v>
       </c>
       <c r="CD23" s="1">
         <v>0.203787</v>
       </c>
       <c r="CE23" s="1">
-        <v>2136.960000</v>
+        <v>2136.96</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1749.860000</v>
+        <v>-1749.86</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>560.281354</v>
+        <v>560.28135399999996</v>
       </c>
       <c r="B24" s="1">
-        <v>0.155634</v>
+        <v>0.15563399999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1141.470000</v>
+        <v>1141.47</v>
       </c>
       <c r="D24" s="1">
-        <v>-261.878000</v>
+        <v>-261.87799999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>570.725708</v>
+        <v>570.72570800000005</v>
       </c>
       <c r="G24" s="1">
-        <v>0.158535</v>
+        <v>0.15853500000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1163.600000</v>
+        <v>1163.5999999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-219.607000</v>
+        <v>-219.607</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>581.540878</v>
+        <v>581.54087800000002</v>
       </c>
       <c r="L24" s="1">
-        <v>0.161539</v>
+        <v>0.16153899999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1191.210000</v>
+        <v>1191.21</v>
       </c>
       <c r="N24" s="1">
-        <v>-151.859000</v>
+        <v>-151.85900000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>592.134433</v>
+        <v>592.13443299999994</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.164482</v>
+        <v>0.16448199999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1198.880000</v>
+        <v>1198.8800000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-129.102000</v>
+        <v>-129.102</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>602.362466</v>
+        <v>602.36246600000004</v>
       </c>
       <c r="V24" s="1">
         <v>0.167323</v>
       </c>
       <c r="W24" s="1">
-        <v>1206.080000</v>
+        <v>1206.08</v>
       </c>
       <c r="X24" s="1">
-        <v>-107.560000</v>
+        <v>-107.56</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>612.612261</v>
+        <v>612.61226099999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>0.170170</v>
+        <v>0.17016999999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1213.390000</v>
+        <v>1213.3900000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.937900</v>
+        <v>-89.937899999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>622.754457</v>
@@ -6225,345 +6641,345 @@
         <v>0.172987</v>
       </c>
       <c r="AG24" s="1">
-        <v>1217.760000</v>
+        <v>1217.76</v>
       </c>
       <c r="AH24" s="1">
-        <v>-84.964300</v>
+        <v>-84.964299999999994</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>633.019953</v>
+        <v>633.01995299999999</v>
       </c>
       <c r="AK24" s="1">
         <v>0.175839</v>
       </c>
       <c r="AL24" s="1">
-        <v>1224.670000</v>
+        <v>1224.67</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.576600</v>
+        <v>-87.576599999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>643.339422</v>
+        <v>643.33942200000001</v>
       </c>
       <c r="AP24" s="1">
         <v>0.178705</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1232.360000</v>
+        <v>1232.3599999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-98.658400</v>
+        <v>-98.6584</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>654.464190</v>
+        <v>654.46419000000003</v>
       </c>
       <c r="AU24" s="1">
-        <v>0.181796</v>
+        <v>0.18179600000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1242.000000</v>
+        <v>1242</v>
       </c>
       <c r="AW24" s="1">
-        <v>-116.976000</v>
+        <v>-116.976</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>665.000487</v>
+        <v>665.00048700000002</v>
       </c>
       <c r="AZ24" s="1">
         <v>0.184722</v>
       </c>
       <c r="BA24" s="1">
-        <v>1250.130000</v>
+        <v>1250.1300000000001</v>
       </c>
       <c r="BB24" s="1">
-        <v>-133.647000</v>
+        <v>-133.64699999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>676.408194</v>
+        <v>676.40819399999998</v>
       </c>
       <c r="BE24" s="1">
         <v>0.187891</v>
       </c>
       <c r="BF24" s="1">
-        <v>1288.190000</v>
+        <v>1288.19</v>
       </c>
       <c r="BG24" s="1">
-        <v>-212.250000</v>
+        <v>-212.25</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>687.808273</v>
+        <v>687.80827299999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>0.191058</v>
+        <v>0.19105800000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1353.600000</v>
+        <v>1353.6</v>
       </c>
       <c r="BL24" s="1">
-        <v>-344.541000</v>
+        <v>-344.541</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>698.843731</v>
+        <v>698.84373100000005</v>
       </c>
       <c r="BO24" s="1">
-        <v>0.194123</v>
+        <v>0.19412299999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1460.900000</v>
+        <v>1460.9</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-562.643000</v>
+        <v>-562.64300000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>709.530533</v>
+        <v>709.53053299999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>0.197092</v>
+        <v>0.19709199999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1585.480000</v>
+        <v>1585.48</v>
       </c>
       <c r="BV24" s="1">
-        <v>-810.965000</v>
+        <v>-810.96500000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>720.741606</v>
+        <v>720.74160600000005</v>
       </c>
       <c r="BY24" s="1">
         <v>0.200206</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1731.140000</v>
+        <v>1731.14</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1083.530000</v>
+        <v>-1083.53</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>734.151444</v>
+        <v>734.15144399999997</v>
       </c>
       <c r="CD24" s="1">
         <v>0.203931</v>
       </c>
       <c r="CE24" s="1">
-        <v>2136.890000</v>
+        <v>2136.89</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1748.220000</v>
+        <v>-1748.22</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>560.931140</v>
+        <v>560.93114000000003</v>
       </c>
       <c r="B25" s="1">
-        <v>0.155814</v>
+        <v>0.15581400000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1141.540000</v>
+        <v>1141.54</v>
       </c>
       <c r="D25" s="1">
-        <v>-261.904000</v>
+        <v>-261.904</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>571.378349</v>
+        <v>571.37834899999996</v>
       </c>
       <c r="G25" s="1">
         <v>0.158716</v>
       </c>
       <c r="H25" s="1">
-        <v>1163.380000</v>
+        <v>1163.3800000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-219.853000</v>
+        <v>-219.85300000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>581.929245</v>
+        <v>581.92924500000004</v>
       </c>
       <c r="L25" s="1">
-        <v>0.161647</v>
+        <v>0.16164700000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1191.300000</v>
+        <v>1191.3</v>
       </c>
       <c r="N25" s="1">
-        <v>-151.917000</v>
+        <v>-151.917</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>592.509936</v>
+        <v>592.50993600000004</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.164586</v>
+        <v>0.16458600000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1198.930000</v>
+        <v>1198.93</v>
       </c>
       <c r="S25" s="1">
-        <v>-129.105000</v>
+        <v>-129.10499999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>602.705667</v>
+        <v>602.70566699999995</v>
       </c>
       <c r="V25" s="1">
-        <v>0.167418</v>
+        <v>0.16741800000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1206.000000</v>
+        <v>1206</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.596000</v>
+        <v>-107.596</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>612.959993</v>
+        <v>612.95999300000005</v>
       </c>
       <c r="AA25" s="1">
         <v>0.170267</v>
       </c>
       <c r="AB25" s="1">
-        <v>1213.230000</v>
+        <v>1213.23</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.072600</v>
+        <v>-90.072599999999994</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>623.100168</v>
+        <v>623.10016800000005</v>
       </c>
       <c r="AF25" s="1">
-        <v>0.173083</v>
+        <v>0.17308299999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1217.760000</v>
+        <v>1217.76</v>
       </c>
       <c r="AH25" s="1">
-        <v>-84.969200</v>
+        <v>-84.969200000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>633.432330</v>
+        <v>633.43232999999998</v>
       </c>
       <c r="AK25" s="1">
         <v>0.175953</v>
       </c>
       <c r="AL25" s="1">
-        <v>1224.640000</v>
+        <v>1224.6400000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.564400</v>
+        <v>-87.564400000000006</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>643.637516</v>
+        <v>643.63751600000001</v>
       </c>
       <c r="AP25" s="1">
         <v>0.178788</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1232.360000</v>
+        <v>1232.3599999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-98.639900</v>
+        <v>-98.639899999999997</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>654.780638</v>
+        <v>654.78063799999995</v>
       </c>
       <c r="AU25" s="1">
-        <v>0.181884</v>
+        <v>0.18188399999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1242.000000</v>
+        <v>1242</v>
       </c>
       <c r="AW25" s="1">
-        <v>-116.975000</v>
+        <v>-116.97499999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>665.358816</v>
+        <v>665.35881600000005</v>
       </c>
       <c r="AZ25" s="1">
-        <v>0.184822</v>
+        <v>0.18482199999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1250.130000</v>
+        <v>1250.1300000000001</v>
       </c>
       <c r="BB25" s="1">
-        <v>-133.647000</v>
+        <v>-133.64699999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>676.787664</v>
+        <v>676.78766399999995</v>
       </c>
       <c r="BE25" s="1">
         <v>0.187997</v>
       </c>
       <c r="BF25" s="1">
-        <v>1288.180000</v>
+        <v>1288.18</v>
       </c>
       <c r="BG25" s="1">
-        <v>-212.272000</v>
+        <v>-212.27199999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>688.187681</v>
@@ -6572,332 +6988,333 @@
         <v>0.191163</v>
       </c>
       <c r="BK25" s="1">
-        <v>1353.620000</v>
+        <v>1353.62</v>
       </c>
       <c r="BL25" s="1">
-        <v>-344.545000</v>
+        <v>-344.54500000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>699.264836</v>
+        <v>699.26483599999995</v>
       </c>
       <c r="BO25" s="1">
-        <v>0.194240</v>
+        <v>0.19424</v>
       </c>
       <c r="BP25" s="1">
-        <v>1460.960000</v>
+        <v>1460.96</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-562.637000</v>
+        <v>-562.63699999999994</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>709.960068</v>
+        <v>709.96006799999998</v>
       </c>
       <c r="BT25" s="1">
         <v>0.197211</v>
       </c>
       <c r="BU25" s="1">
-        <v>1585.530000</v>
+        <v>1585.53</v>
       </c>
       <c r="BV25" s="1">
-        <v>-811.026000</v>
+        <v>-811.02599999999995</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>721.193468</v>
+        <v>721.19346800000005</v>
       </c>
       <c r="BY25" s="1">
-        <v>0.200332</v>
+        <v>0.20033200000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1731.090000</v>
+        <v>1731.09</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1083.560000</v>
+        <v>-1083.56</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>734.667779</v>
       </c>
       <c r="CD25" s="1">
-        <v>0.204074</v>
+        <v>0.20407400000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>2136.900000</v>
+        <v>2136.9</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1748.750000</v>
+        <v>-1748.75</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>561.303145</v>
+        <v>561.30314499999997</v>
       </c>
       <c r="B26" s="1">
         <v>0.155918</v>
       </c>
       <c r="C26" s="1">
-        <v>1141.310000</v>
+        <v>1141.31</v>
       </c>
       <c r="D26" s="1">
-        <v>-262.309000</v>
+        <v>-262.30900000000003</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>571.756794</v>
+        <v>571.75679400000001</v>
       </c>
       <c r="G26" s="1">
-        <v>0.158821</v>
+        <v>0.15882099999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1163.550000</v>
+        <v>1163.55</v>
       </c>
       <c r="I26" s="1">
-        <v>-219.486000</v>
+        <v>-219.48599999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>582.276446</v>
+        <v>582.27644599999996</v>
       </c>
       <c r="L26" s="1">
         <v>0.161743</v>
       </c>
       <c r="M26" s="1">
-        <v>1191.270000</v>
+        <v>1191.27</v>
       </c>
       <c r="N26" s="1">
-        <v>-151.813000</v>
+        <v>-151.81299999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>592.887359</v>
+        <v>592.88735899999995</v>
       </c>
       <c r="Q26" s="1">
         <v>0.164691</v>
       </c>
       <c r="R26" s="1">
-        <v>1198.860000</v>
+        <v>1198.8599999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-129.141000</v>
+        <v>-129.14099999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>603.047905</v>
+        <v>603.04790500000001</v>
       </c>
       <c r="V26" s="1">
         <v>0.167513</v>
       </c>
       <c r="W26" s="1">
-        <v>1206.020000</v>
+        <v>1206.02</v>
       </c>
       <c r="X26" s="1">
-        <v>-107.668000</v>
+        <v>-107.66800000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>613.382084</v>
+        <v>613.38208399999996</v>
       </c>
       <c r="AA26" s="1">
-        <v>0.170384</v>
+        <v>0.17038400000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1213.200000</v>
+        <v>1213.2</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.957500</v>
+        <v>-89.957499999999996</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>623.516311</v>
+        <v>623.51631099999997</v>
       </c>
       <c r="AF26" s="1">
-        <v>0.173199</v>
+        <v>0.17319899999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1217.790000</v>
+        <v>1217.79</v>
       </c>
       <c r="AH26" s="1">
-        <v>-84.957400</v>
+        <v>-84.957400000000007</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>633.728441</v>
+        <v>633.72844099999998</v>
       </c>
       <c r="AK26" s="1">
         <v>0.176036</v>
       </c>
       <c r="AL26" s="1">
-        <v>1224.620000</v>
+        <v>1224.6199999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.565100</v>
+        <v>-87.565100000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>644.001084</v>
+        <v>644.00108399999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>0.178889</v>
+        <v>0.17888899999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1232.340000</v>
+        <v>1232.3399999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-98.652900</v>
+        <v>-98.652900000000002</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>655.142252</v>
+        <v>655.14225199999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>0.181984</v>
+        <v>0.18198400000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1242.000000</v>
+        <v>1242</v>
       </c>
       <c r="AW26" s="1">
-        <v>-116.952000</v>
+        <v>-116.952</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>665.717918</v>
+        <v>665.71791800000005</v>
       </c>
       <c r="AZ26" s="1">
         <v>0.184922</v>
       </c>
       <c r="BA26" s="1">
-        <v>1250.070000</v>
+        <v>1250.07</v>
       </c>
       <c r="BB26" s="1">
-        <v>-133.661000</v>
+        <v>-133.661</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>677.508817</v>
+        <v>677.50881700000002</v>
       </c>
       <c r="BE26" s="1">
         <v>0.188197</v>
       </c>
       <c r="BF26" s="1">
-        <v>1288.190000</v>
+        <v>1288.19</v>
       </c>
       <c r="BG26" s="1">
-        <v>-212.262000</v>
+        <v>-212.262</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>688.958496</v>
+        <v>688.95849599999997</v>
       </c>
       <c r="BJ26" s="1">
-        <v>0.191377</v>
+        <v>0.19137699999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1353.600000</v>
+        <v>1353.6</v>
       </c>
       <c r="BL26" s="1">
-        <v>-344.551000</v>
+        <v>-344.55099999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>699.659650</v>
+        <v>699.65965000000006</v>
       </c>
       <c r="BO26" s="1">
-        <v>0.194350</v>
+        <v>0.19434999999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1460.930000</v>
+        <v>1460.93</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-562.682000</v>
+        <v>-562.68200000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>710.369267</v>
+        <v>710.36926700000004</v>
       </c>
       <c r="BT26" s="1">
         <v>0.197325</v>
       </c>
       <c r="BU26" s="1">
-        <v>1585.580000</v>
+        <v>1585.58</v>
       </c>
       <c r="BV26" s="1">
-        <v>-810.933000</v>
+        <v>-810.93299999999999</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>721.614070</v>
+        <v>721.61406999999997</v>
       </c>
       <c r="BY26" s="1">
-        <v>0.200448</v>
+        <v>0.20044799999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1731.110000</v>
+        <v>1731.11</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1083.520000</v>
+        <v>-1083.52</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>735.526863</v>
+        <v>735.52686300000005</v>
       </c>
       <c r="CD26" s="1">
-        <v>0.204313</v>
+        <v>0.20431299999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>2136.800000</v>
+        <v>2136.8000000000002</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1749.940000</v>
+        <v>-1749.94</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>